--- a/詳細設計/グループ開発_詳細設計_大城.xlsx
+++ b/詳細設計/グループ開発_詳細設計_大城.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\git\groupA\詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5182776-264D-491C-AEAC-665D3DDD4BE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA7041D-3878-487B-89DB-501071870F31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="-165" windowWidth="14820" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コーディング規約" sheetId="16" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="161">
   <si>
     <t>機能一覧</t>
     <rPh sb="0" eb="2">
@@ -197,16 +197,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>日データ修正</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>日データ閲覧画面→日データ修正画面</t>
     <rPh sb="0" eb="1">
       <t>ヒ</t>
@@ -1380,41 +1370,6 @@
     </rPh>
     <rPh sb="34" eb="36">
       <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>チェック項目で該当するなら、メッセージを値として保持して全削除確認画面に遷移</t>
-    <rPh sb="4" eb="6">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="28" eb="35">
-      <t>ゼンサクジョカクニンガメン</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>データデリートサービスの日ごとデータ削除メソッドを実行する</t>
-    <rPh sb="12" eb="13">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジッコウ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1671,6 +1626,214 @@
     </rPh>
     <rPh sb="5" eb="8">
       <t>ヘンスウメイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>日データ閲覧画面</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「修正」ボタンを押下時</t>
+    <rPh sb="1" eb="3">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ラジオボタンで選択している項目の項目名、表示している日付を値として取得し、日データフォームに入れてデータ修正削除コントローラに渡す</t>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="52" eb="56">
+      <t>シュウセイサクジョ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>返り値を表示するために保持し、日データ修正画面に遷移する</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>チェック項目で該当するなら、メッセージを値として保持して全削除確認画面に遷移</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>itemsテーブルのuser_id、itemカラム、dataテーブルの全カラム</t>
+    <rPh sb="35" eb="36">
+      <t>ゼン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>日データ修正フォームクラス</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>データセレクトサービス</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>日データフォームから項目名と日付を取得して、データアップデートサービスクラスのワンデータセレクトプリントメソッドを実行し、</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>データデリートサービスクラスの日ごとデータ削除メソッドを実行する</t>
+    <rPh sb="15" eb="16">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>別に利用できるサービスメソッドがあるならこのメソッドを作らずに持ってきて使うこと</t>
+    <rPh sb="0" eb="1">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>メソッドを作る場合でも良い方法があるならそのアイデアを採用し適宜戻り値等を変えることを推奨する。</t>
+    <rPh sb="5" eb="6">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サイヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>テキギ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>スイショウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>返り値は項目を表示できるようにHTMLが入った文字列型</t>
+    <rPh sb="0" eb="1">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>モジレツガタ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -2237,39 +2400,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2321,6 +2452,42 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2329,6 +2496,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -2363,10 +2533,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -2374,10 +2541,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2668,7 +2831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1700B954-3986-4C8C-972E-67A708B784F5}">
   <dimension ref="B2:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -2676,200 +2839,200 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="C14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="C15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="C16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="C17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="C18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="C19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="C20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
         <v>65</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>66</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>67</v>
       </c>
-      <c r="E25" t="s">
-        <v>68</v>
-      </c>
       <c r="F25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="E26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="E27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="E28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2903,180 +3066,180 @@
   <sheetData>
     <row r="1" spans="2:49" ht="1.1499999999999999" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:49" ht="13.5" customHeight="1" thickTop="1">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
-      <c r="AP2" s="43"/>
-      <c r="AQ2" s="43"/>
-      <c r="AR2" s="43"/>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="43"/>
-      <c r="AV2" s="43"/>
-      <c r="AW2" s="44"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="33"/>
+      <c r="AW2" s="34"/>
     </row>
     <row r="3" spans="2:49" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="46"/>
-      <c r="AK3" s="46"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="47"/>
-      <c r="AP3" s="47"/>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="47"/>
-      <c r="AS3" s="47"/>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="47"/>
-      <c r="AW3" s="48"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="36"/>
+      <c r="AN3" s="37"/>
+      <c r="AO3" s="37"/>
+      <c r="AP3" s="37"/>
+      <c r="AQ3" s="37"/>
+      <c r="AR3" s="37"/>
+      <c r="AS3" s="37"/>
+      <c r="AT3" s="37"/>
+      <c r="AU3" s="37"/>
+      <c r="AV3" s="37"/>
+      <c r="AW3" s="38"/>
     </row>
     <row r="4" spans="2:49" ht="13.5" customHeight="1" thickTop="1"/>
     <row r="5" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="51" t="s">
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="51" t="s">
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="52"/>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="52"/>
-      <c r="AE5" s="52"/>
-      <c r="AF5" s="52"/>
-      <c r="AG5" s="52"/>
-      <c r="AH5" s="52"/>
-      <c r="AI5" s="52"/>
-      <c r="AJ5" s="52"/>
-      <c r="AK5" s="52"/>
-      <c r="AL5" s="52"/>
-      <c r="AM5" s="52"/>
-      <c r="AN5" s="52"/>
-      <c r="AO5" s="52"/>
-      <c r="AP5" s="52"/>
-      <c r="AQ5" s="52"/>
-      <c r="AR5" s="52"/>
-      <c r="AS5" s="52"/>
-      <c r="AT5" s="52"/>
-      <c r="AU5" s="52"/>
-      <c r="AV5" s="52"/>
-      <c r="AW5" s="53"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="42"/>
+      <c r="AD5" s="42"/>
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="42"/>
+      <c r="AK5" s="42"/>
+      <c r="AL5" s="42"/>
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="42"/>
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="42"/>
+      <c r="AR5" s="42"/>
+      <c r="AS5" s="42"/>
+      <c r="AT5" s="42"/>
+      <c r="AU5" s="42"/>
+      <c r="AV5" s="42"/>
+      <c r="AW5" s="43"/>
     </row>
     <row r="6" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B6" s="37">
+      <c r="B6" s="27">
         <f>MAX($B$5:B5)+1</f>
         <v>1</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="41"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
       <c r="H6" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -3123,17 +3286,17 @@
       <c r="AW6" s="3"/>
     </row>
     <row r="7" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B7" s="26">
+      <c r="B7" s="44">
         <f>MAX($B$5:B6)+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="36" t="s">
+      <c r="C7" s="45"/>
+      <c r="D7" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
       <c r="H7" s="15" t="s">
         <v>12</v>
       </c>
@@ -3182,17 +3345,17 @@
       <c r="AW7" s="6"/>
     </row>
     <row r="8" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B8" s="26">
+      <c r="B8" s="44">
         <f>MAX($B$5:B7)+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="36" t="s">
+      <c r="C8" s="45"/>
+      <c r="D8" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="48"/>
       <c r="H8" s="15" t="s">
         <v>30</v>
       </c>
@@ -3206,7 +3369,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
@@ -3241,19 +3404,19 @@
       <c r="AW8" s="6"/>
     </row>
     <row r="9" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B9" s="26">
+      <c r="B9" s="44">
         <f>MAX($B$5:B8)+1</f>
         <v>4</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="36" t="s">
+      <c r="C9" s="45"/>
+      <c r="D9" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="48"/>
       <c r="H9" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -3265,7 +3428,7 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="16"/>
       <c r="R9" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
@@ -3300,19 +3463,19 @@
       <c r="AW9" s="6"/>
     </row>
     <row r="10" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B10" s="26">
+      <c r="B10" s="44">
         <f>MAX($B$5:B9)+1</f>
         <v>5</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="36" t="s">
+      <c r="C10" s="45"/>
+      <c r="D10" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
       <c r="H10" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -3324,7 +3487,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="16"/>
       <c r="R10" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
@@ -3359,19 +3522,19 @@
       <c r="AW10" s="6"/>
     </row>
     <row r="11" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B11" s="26">
+      <c r="B11" s="44">
         <f>MAX($B$5:B10)+1</f>
         <v>6</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="36" t="s">
+      <c r="C11" s="45"/>
+      <c r="D11" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
       <c r="H11" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -3383,7 +3546,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="16"/>
       <c r="R11" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
@@ -3418,19 +3581,19 @@
       <c r="AW11" s="6"/>
     </row>
     <row r="12" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B12" s="26">
+      <c r="B12" s="44">
         <f>MAX($B$5:B11)+1</f>
         <v>7</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="36" t="s">
+      <c r="C12" s="45"/>
+      <c r="D12" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
       <c r="H12" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -3442,7 +3605,7 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
@@ -3477,19 +3640,19 @@
       <c r="AW12" s="6"/>
     </row>
     <row r="13" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B13" s="26">
+      <c r="B13" s="44">
         <f>MAX($B$5:B12)+1</f>
         <v>8</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -3501,7 +3664,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="16"/>
       <c r="R13" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
@@ -3536,15 +3699,15 @@
       <c r="AW13" s="6"/>
     </row>
     <row r="14" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B14" s="26">
+      <c r="B14" s="44">
         <f>MAX($B$5:B13)+1</f>
         <v>9</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="48"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -3588,15 +3751,15 @@
       <c r="AW14" s="6"/>
     </row>
     <row r="15" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B15" s="26">
+      <c r="B15" s="44">
         <f>MAX($B$5:B14)+1</f>
         <v>10</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="4"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -3641,15 +3804,15 @@
       <c r="AW15" s="6"/>
     </row>
     <row r="16" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B16" s="26">
+      <c r="B16" s="44">
         <f>MAX($B$5:B15)+1</f>
         <v>11</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="4"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -3694,15 +3857,15 @@
       <c r="AW16" s="6"/>
     </row>
     <row r="17" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B17" s="26">
+      <c r="B17" s="44">
         <f>MAX($B$5:B16)+1</f>
         <v>12</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="4"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -3747,15 +3910,15 @@
       <c r="AW17" s="6"/>
     </row>
     <row r="18" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B18" s="26">
+      <c r="B18" s="44">
         <f>MAX($B$5:B17)+1</f>
         <v>13</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="4"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -3800,15 +3963,15 @@
       <c r="AW18" s="6"/>
     </row>
     <row r="19" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B19" s="26">
+      <c r="B19" s="44">
         <f>MAX($B$5:B18)+1</f>
         <v>14</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="4"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -3853,15 +4016,15 @@
       <c r="AW19" s="6"/>
     </row>
     <row r="20" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B20" s="26">
+      <c r="B20" s="44">
         <f>MAX($B$5:B19)+1</f>
         <v>15</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="4"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -3906,15 +4069,15 @@
       <c r="AW20" s="6"/>
     </row>
     <row r="21" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B21" s="26">
+      <c r="B21" s="44">
         <f>MAX($B$5:B20)+1</f>
         <v>16</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="4"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -3959,15 +4122,15 @@
       <c r="AW21" s="6"/>
     </row>
     <row r="22" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B22" s="26">
+      <c r="B22" s="44">
         <f>MAX($B$5:B21)+1</f>
         <v>17</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="30"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="4"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -4012,15 +4175,15 @@
       <c r="AW22" s="6"/>
     </row>
     <row r="23" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B23" s="26">
+      <c r="B23" s="44">
         <f>MAX($B$5:B22)+1</f>
         <v>18</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="48"/>
       <c r="H23" s="4"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -4065,15 +4228,15 @@
       <c r="AW23" s="6"/>
     </row>
     <row r="24" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B24" s="26">
+      <c r="B24" s="44">
         <f>MAX($B$5:B23)+1</f>
         <v>19</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="48"/>
       <c r="H24" s="4"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -4118,15 +4281,15 @@
       <c r="AW24" s="6"/>
     </row>
     <row r="25" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B25" s="26">
+      <c r="B25" s="44">
         <f>MAX($B$5:B24)+1</f>
         <v>20</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="48"/>
       <c r="H25" s="4"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -4171,15 +4334,15 @@
       <c r="AW25" s="6"/>
     </row>
     <row r="26" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B26" s="26">
+      <c r="B26" s="44">
         <f>MAX($B$5:B25)+1</f>
         <v>21</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="30"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="48"/>
       <c r="H26" s="4"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -4224,15 +4387,15 @@
       <c r="AW26" s="6"/>
     </row>
     <row r="27" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B27" s="26">
+      <c r="B27" s="44">
         <f>MAX($B$5:B26)+1</f>
         <v>22</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="4"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -4277,15 +4440,15 @@
       <c r="AW27" s="6"/>
     </row>
     <row r="28" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B28" s="26">
+      <c r="B28" s="44">
         <f>MAX($B$5:B27)+1</f>
         <v>23</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="4"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -4330,15 +4493,15 @@
       <c r="AW28" s="6"/>
     </row>
     <row r="29" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B29" s="26">
+      <c r="B29" s="44">
         <f>MAX($B$5:B28)+1</f>
         <v>24</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="48"/>
       <c r="H29" s="4"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -4383,15 +4546,15 @@
       <c r="AW29" s="6"/>
     </row>
     <row r="30" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B30" s="26">
+      <c r="B30" s="44">
         <f>MAX($B$5:B29)+1</f>
         <v>25</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="30"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="48"/>
       <c r="H30" s="4"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -4436,15 +4599,15 @@
       <c r="AW30" s="6"/>
     </row>
     <row r="31" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B31" s="26">
+      <c r="B31" s="44">
         <f>MAX($B$5:B30)+1</f>
         <v>26</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="30"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="48"/>
       <c r="H31" s="4"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
@@ -4489,15 +4652,15 @@
       <c r="AW31" s="6"/>
     </row>
     <row r="32" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B32" s="26">
+      <c r="B32" s="44">
         <f>MAX($B$5:B31)+1</f>
         <v>27</v>
       </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="30"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="48"/>
       <c r="H32" s="4"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -4542,15 +4705,15 @@
       <c r="AW32" s="6"/>
     </row>
     <row r="33" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B33" s="26">
+      <c r="B33" s="44">
         <f>MAX($B$5:B32)+1</f>
         <v>28</v>
       </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="30"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="48"/>
       <c r="H33" s="4"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -4595,15 +4758,15 @@
       <c r="AW33" s="6"/>
     </row>
     <row r="34" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B34" s="26">
+      <c r="B34" s="44">
         <f>MAX($B$5:B33)+1</f>
         <v>29</v>
       </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="30"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="48"/>
       <c r="H34" s="4"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -4648,15 +4811,15 @@
       <c r="AW34" s="6"/>
     </row>
     <row r="35" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B35" s="26">
+      <c r="B35" s="44">
         <f>MAX($B$5:B34)+1</f>
         <v>30</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="30"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="48"/>
       <c r="H35" s="4"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -4701,15 +4864,15 @@
       <c r="AW35" s="6"/>
     </row>
     <row r="36" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B36" s="26">
+      <c r="B36" s="44">
         <f>MAX($B$5:B35)+1</f>
         <v>31</v>
       </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="30"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="48"/>
       <c r="H36" s="4"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -4754,15 +4917,15 @@
       <c r="AW36" s="6"/>
     </row>
     <row r="37" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B37" s="26">
+      <c r="B37" s="44">
         <f>MAX($B$5:B36)+1</f>
         <v>32</v>
       </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="30"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="48"/>
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -4807,15 +4970,15 @@
       <c r="AW37" s="6"/>
     </row>
     <row r="38" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B38" s="26">
+      <c r="B38" s="44">
         <f>MAX($B$5:B37)+1</f>
         <v>33</v>
       </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="30"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="48"/>
       <c r="H38" s="4"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -4860,15 +5023,15 @@
       <c r="AW38" s="6"/>
     </row>
     <row r="39" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B39" s="26">
+      <c r="B39" s="44">
         <f>MAX($B$5:B38)+1</f>
         <v>34</v>
       </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="30"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="48"/>
       <c r="H39" s="4"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
@@ -4913,15 +5076,15 @@
       <c r="AW39" s="6"/>
     </row>
     <row r="40" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B40" s="26">
+      <c r="B40" s="44">
         <f>MAX($B$5:B39)+1</f>
         <v>35</v>
       </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="30"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="48"/>
       <c r="H40" s="4"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -4966,15 +5129,15 @@
       <c r="AW40" s="6"/>
     </row>
     <row r="41" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B41" s="26">
+      <c r="B41" s="44">
         <f>MAX($B$5:B40)+1</f>
         <v>36</v>
       </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="30"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="48"/>
       <c r="H41" s="4"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
@@ -5019,15 +5182,15 @@
       <c r="AW41" s="6"/>
     </row>
     <row r="42" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B42" s="31">
+      <c r="B42" s="50">
         <f>MAX($B$5:B41)+1</f>
         <v>37</v>
       </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="35"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="54"/>
       <c r="H42" s="7"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
@@ -5073,6 +5236,78 @@
     </row>
   </sheetData>
   <mergeCells count="79">
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="B2:AW3"/>
@@ -5080,78 +5315,6 @@
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="H5:Q5"/>
     <mergeCell ref="R5:AW5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.71" right="0.39" top="0.59" bottom="0.59" header="0.39" footer="0.39"/>
@@ -5181,232 +5344,232 @@
   <sheetData>
     <row r="1" spans="2:142" s="10" customFormat="1" ht="12.75" thickBot="1"/>
     <row r="2" spans="2:142" s="10" customFormat="1" ht="12.75" thickTop="1">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="64" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="62"/>
+      <c r="AG2" s="62"/>
+      <c r="AH2" s="62"/>
+      <c r="AI2" s="62"/>
+      <c r="AJ2" s="62"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="AM2" s="64"/>
-      <c r="AN2" s="64"/>
-      <c r="AO2" s="64"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="64"/>
-      <c r="AR2" s="65">
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="67"/>
+      <c r="AO2" s="67"/>
+      <c r="AP2" s="67"/>
+      <c r="AQ2" s="67"/>
+      <c r="AR2" s="68">
         <v>43999</v>
       </c>
-      <c r="AS2" s="65"/>
-      <c r="AT2" s="65"/>
-      <c r="AU2" s="65"/>
-      <c r="AV2" s="65"/>
-      <c r="AW2" s="65"/>
-      <c r="AX2" s="65"/>
-      <c r="AY2" s="65"/>
-      <c r="AZ2" s="65"/>
-      <c r="BA2" s="66"/>
-      <c r="CJ2" s="67"/>
-      <c r="CK2" s="67"/>
-      <c r="CL2" s="67"/>
-      <c r="CM2" s="67"/>
-      <c r="CN2" s="67"/>
-      <c r="CO2" s="67"/>
-      <c r="CP2" s="67"/>
-      <c r="CQ2" s="67"/>
-      <c r="CR2" s="67"/>
-      <c r="CS2" s="67"/>
-      <c r="CT2" s="67"/>
-      <c r="CU2" s="67"/>
-      <c r="CV2" s="67"/>
-      <c r="CW2" s="67"/>
-      <c r="CX2" s="67"/>
-      <c r="CY2" s="67"/>
-      <c r="CZ2" s="67"/>
-      <c r="DA2" s="67"/>
-      <c r="DB2" s="67"/>
-      <c r="DC2" s="67"/>
-      <c r="DD2" s="67"/>
-      <c r="DE2" s="67"/>
-      <c r="DF2" s="67"/>
-      <c r="DG2" s="67"/>
-      <c r="DH2" s="67"/>
-      <c r="DI2" s="67"/>
-      <c r="DJ2" s="67"/>
-      <c r="DK2" s="67"/>
-      <c r="DL2" s="67"/>
-      <c r="DM2" s="67"/>
-      <c r="DN2" s="67"/>
-      <c r="DO2" s="67"/>
-      <c r="DP2" s="67"/>
-      <c r="DQ2" s="67"/>
-      <c r="DR2" s="67"/>
-      <c r="DS2" s="67"/>
-      <c r="DT2" s="67"/>
-      <c r="DU2" s="67"/>
-      <c r="DV2" s="67"/>
-      <c r="DW2" s="69"/>
-      <c r="DX2" s="69"/>
-      <c r="DY2" s="69"/>
-      <c r="DZ2" s="69"/>
-      <c r="EA2" s="69"/>
-      <c r="EB2" s="69"/>
-      <c r="EC2" s="68"/>
-      <c r="ED2" s="68"/>
-      <c r="EE2" s="68"/>
-      <c r="EF2" s="68"/>
-      <c r="EG2" s="68"/>
-      <c r="EH2" s="68"/>
-      <c r="EI2" s="68"/>
-      <c r="EJ2" s="68"/>
-      <c r="EK2" s="68"/>
-      <c r="EL2" s="68"/>
+      <c r="AS2" s="68"/>
+      <c r="AT2" s="68"/>
+      <c r="AU2" s="68"/>
+      <c r="AV2" s="68"/>
+      <c r="AW2" s="68"/>
+      <c r="AX2" s="68"/>
+      <c r="AY2" s="68"/>
+      <c r="AZ2" s="68"/>
+      <c r="BA2" s="69"/>
+      <c r="CJ2" s="70"/>
+      <c r="CK2" s="70"/>
+      <c r="CL2" s="70"/>
+      <c r="CM2" s="70"/>
+      <c r="CN2" s="70"/>
+      <c r="CO2" s="70"/>
+      <c r="CP2" s="70"/>
+      <c r="CQ2" s="70"/>
+      <c r="CR2" s="70"/>
+      <c r="CS2" s="70"/>
+      <c r="CT2" s="70"/>
+      <c r="CU2" s="70"/>
+      <c r="CV2" s="70"/>
+      <c r="CW2" s="70"/>
+      <c r="CX2" s="70"/>
+      <c r="CY2" s="70"/>
+      <c r="CZ2" s="70"/>
+      <c r="DA2" s="70"/>
+      <c r="DB2" s="70"/>
+      <c r="DC2" s="70"/>
+      <c r="DD2" s="70"/>
+      <c r="DE2" s="70"/>
+      <c r="DF2" s="70"/>
+      <c r="DG2" s="70"/>
+      <c r="DH2" s="70"/>
+      <c r="DI2" s="70"/>
+      <c r="DJ2" s="70"/>
+      <c r="DK2" s="70"/>
+      <c r="DL2" s="70"/>
+      <c r="DM2" s="70"/>
+      <c r="DN2" s="70"/>
+      <c r="DO2" s="70"/>
+      <c r="DP2" s="70"/>
+      <c r="DQ2" s="70"/>
+      <c r="DR2" s="70"/>
+      <c r="DS2" s="70"/>
+      <c r="DT2" s="70"/>
+      <c r="DU2" s="70"/>
+      <c r="DV2" s="70"/>
+      <c r="DW2" s="59"/>
+      <c r="DX2" s="59"/>
+      <c r="DY2" s="59"/>
+      <c r="DZ2" s="59"/>
+      <c r="EA2" s="59"/>
+      <c r="EB2" s="59"/>
+      <c r="EC2" s="55"/>
+      <c r="ED2" s="55"/>
+      <c r="EE2" s="55"/>
+      <c r="EF2" s="55"/>
+      <c r="EG2" s="55"/>
+      <c r="EH2" s="55"/>
+      <c r="EI2" s="55"/>
+      <c r="EJ2" s="55"/>
+      <c r="EK2" s="55"/>
+      <c r="EL2" s="55"/>
     </row>
     <row r="3" spans="2:142" s="10" customFormat="1" ht="12.75" thickBot="1">
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="62"/>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="62"/>
-      <c r="AJ3" s="62"/>
-      <c r="AK3" s="63"/>
-      <c r="AL3" s="54" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="66"/>
+      <c r="AL3" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="54"/>
-      <c r="AQ3" s="54"/>
-      <c r="AR3" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="AS3" s="55"/>
-      <c r="AT3" s="55"/>
-      <c r="AU3" s="55"/>
-      <c r="AV3" s="55"/>
-      <c r="AW3" s="55"/>
-      <c r="AX3" s="55"/>
-      <c r="AY3" s="55"/>
-      <c r="AZ3" s="55"/>
-      <c r="BA3" s="56"/>
-      <c r="CJ3" s="67"/>
-      <c r="CK3" s="67"/>
-      <c r="CL3" s="67"/>
-      <c r="CM3" s="67"/>
-      <c r="CN3" s="67"/>
-      <c r="CO3" s="67"/>
-      <c r="CP3" s="67"/>
-      <c r="CQ3" s="67"/>
-      <c r="CR3" s="67"/>
-      <c r="CS3" s="67"/>
-      <c r="CT3" s="67"/>
-      <c r="CU3" s="67"/>
-      <c r="CV3" s="67"/>
-      <c r="CW3" s="67"/>
-      <c r="CX3" s="67"/>
-      <c r="CY3" s="67"/>
-      <c r="CZ3" s="67"/>
-      <c r="DA3" s="67"/>
-      <c r="DB3" s="67"/>
-      <c r="DC3" s="67"/>
-      <c r="DD3" s="67"/>
-      <c r="DE3" s="67"/>
-      <c r="DF3" s="67"/>
-      <c r="DG3" s="67"/>
-      <c r="DH3" s="67"/>
-      <c r="DI3" s="67"/>
-      <c r="DJ3" s="67"/>
-      <c r="DK3" s="67"/>
-      <c r="DL3" s="67"/>
-      <c r="DM3" s="67"/>
-      <c r="DN3" s="67"/>
-      <c r="DO3" s="67"/>
-      <c r="DP3" s="67"/>
-      <c r="DQ3" s="67"/>
-      <c r="DR3" s="67"/>
-      <c r="DS3" s="67"/>
-      <c r="DT3" s="67"/>
-      <c r="DU3" s="67"/>
-      <c r="DV3" s="67"/>
-      <c r="DW3" s="69"/>
-      <c r="DX3" s="69"/>
-      <c r="DY3" s="69"/>
-      <c r="DZ3" s="69"/>
-      <c r="EA3" s="69"/>
-      <c r="EB3" s="69"/>
-      <c r="EC3" s="57"/>
-      <c r="ED3" s="57"/>
-      <c r="EE3" s="57"/>
-      <c r="EF3" s="57"/>
-      <c r="EG3" s="57"/>
-      <c r="EH3" s="57"/>
-      <c r="EI3" s="57"/>
-      <c r="EJ3" s="57"/>
-      <c r="EK3" s="57"/>
-      <c r="EL3" s="57"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="56"/>
+      <c r="AP3" s="56"/>
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS3" s="57"/>
+      <c r="AT3" s="57"/>
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="57"/>
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="57"/>
+      <c r="BA3" s="58"/>
+      <c r="CJ3" s="70"/>
+      <c r="CK3" s="70"/>
+      <c r="CL3" s="70"/>
+      <c r="CM3" s="70"/>
+      <c r="CN3" s="70"/>
+      <c r="CO3" s="70"/>
+      <c r="CP3" s="70"/>
+      <c r="CQ3" s="70"/>
+      <c r="CR3" s="70"/>
+      <c r="CS3" s="70"/>
+      <c r="CT3" s="70"/>
+      <c r="CU3" s="70"/>
+      <c r="CV3" s="70"/>
+      <c r="CW3" s="70"/>
+      <c r="CX3" s="70"/>
+      <c r="CY3" s="70"/>
+      <c r="CZ3" s="70"/>
+      <c r="DA3" s="70"/>
+      <c r="DB3" s="70"/>
+      <c r="DC3" s="70"/>
+      <c r="DD3" s="70"/>
+      <c r="DE3" s="70"/>
+      <c r="DF3" s="70"/>
+      <c r="DG3" s="70"/>
+      <c r="DH3" s="70"/>
+      <c r="DI3" s="70"/>
+      <c r="DJ3" s="70"/>
+      <c r="DK3" s="70"/>
+      <c r="DL3" s="70"/>
+      <c r="DM3" s="70"/>
+      <c r="DN3" s="70"/>
+      <c r="DO3" s="70"/>
+      <c r="DP3" s="70"/>
+      <c r="DQ3" s="70"/>
+      <c r="DR3" s="70"/>
+      <c r="DS3" s="70"/>
+      <c r="DT3" s="70"/>
+      <c r="DU3" s="70"/>
+      <c r="DV3" s="70"/>
+      <c r="DW3" s="59"/>
+      <c r="DX3" s="59"/>
+      <c r="DY3" s="59"/>
+      <c r="DZ3" s="59"/>
+      <c r="EA3" s="59"/>
+      <c r="EB3" s="59"/>
+      <c r="EC3" s="60"/>
+      <c r="ED3" s="60"/>
+      <c r="EE3" s="60"/>
+      <c r="EF3" s="60"/>
+      <c r="EG3" s="60"/>
+      <c r="EH3" s="60"/>
+      <c r="EI3" s="60"/>
+      <c r="EJ3" s="60"/>
+      <c r="EK3" s="60"/>
+      <c r="EL3" s="60"/>
     </row>
     <row r="4" spans="2:142" ht="16.5" thickTop="1">
       <c r="B4" s="20"/>
@@ -6149,7 +6312,7 @@
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="F18" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O18" s="19"/>
       <c r="P18" s="19"/>
@@ -6241,7 +6404,7 @@
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="H20" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
@@ -6282,7 +6445,7 @@
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="I21" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
@@ -6368,7 +6531,7 @@
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="J23" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K23" s="19"/>
       <c r="P23" s="19"/>
@@ -6406,47 +6569,47 @@
       <c r="CO23" s="12"/>
       <c r="CP23" s="12"/>
       <c r="CQ23" s="12"/>
-      <c r="CR23" s="72"/>
-      <c r="CS23" s="72"/>
-      <c r="CT23" s="72"/>
-      <c r="CU23" s="72"/>
-      <c r="CV23" s="72"/>
-      <c r="CW23" s="72"/>
-      <c r="CX23" s="72"/>
-      <c r="CY23" s="72"/>
-      <c r="CZ23" s="72"/>
-      <c r="DA23" s="72"/>
-      <c r="DB23" s="72"/>
-      <c r="DC23" s="72"/>
-      <c r="DD23" s="72"/>
-      <c r="DE23" s="72"/>
-      <c r="DF23" s="72"/>
-      <c r="DG23" s="72"/>
-      <c r="DH23" s="72"/>
-      <c r="DI23" s="72"/>
+      <c r="CR23" s="26"/>
+      <c r="CS23" s="26"/>
+      <c r="CT23" s="26"/>
+      <c r="CU23" s="26"/>
+      <c r="CV23" s="26"/>
+      <c r="CW23" s="26"/>
+      <c r="CX23" s="26"/>
+      <c r="CY23" s="26"/>
+      <c r="CZ23" s="26"/>
+      <c r="DA23" s="26"/>
+      <c r="DB23" s="26"/>
+      <c r="DC23" s="26"/>
+      <c r="DD23" s="26"/>
+      <c r="DE23" s="26"/>
+      <c r="DF23" s="26"/>
+      <c r="DG23" s="26"/>
+      <c r="DH23" s="26"/>
+      <c r="DI23" s="26"/>
       <c r="DJ23" s="12"/>
       <c r="DK23" s="12"/>
       <c r="DL23" s="12"/>
       <c r="DM23" s="12"/>
       <c r="DN23" s="12"/>
-      <c r="DO23" s="72"/>
-      <c r="DP23" s="72"/>
-      <c r="DQ23" s="72"/>
-      <c r="DR23" s="72"/>
-      <c r="DS23" s="72"/>
-      <c r="DT23" s="72"/>
-      <c r="DU23" s="72"/>
-      <c r="DV23" s="72"/>
-      <c r="DW23" s="72"/>
-      <c r="DX23" s="72"/>
-      <c r="DY23" s="72"/>
-      <c r="DZ23" s="72"/>
+      <c r="DO23" s="26"/>
+      <c r="DP23" s="26"/>
+      <c r="DQ23" s="26"/>
+      <c r="DR23" s="26"/>
+      <c r="DS23" s="26"/>
+      <c r="DT23" s="26"/>
+      <c r="DU23" s="26"/>
+      <c r="DV23" s="26"/>
+      <c r="DW23" s="26"/>
+      <c r="DX23" s="26"/>
+      <c r="DY23" s="26"/>
+      <c r="DZ23" s="26"/>
     </row>
     <row r="24" spans="2:142">
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
       <c r="K24" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
@@ -6488,7 +6651,7 @@
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
       <c r="K25" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P25" s="19"/>
       <c r="Q25" s="19"/>
@@ -6525,67 +6688,67 @@
       <c r="AY25" s="19"/>
       <c r="AZ25" s="19"/>
       <c r="BA25" s="19"/>
-      <c r="CJ25" s="73"/>
-      <c r="CK25" s="73"/>
-      <c r="CL25" s="73"/>
-      <c r="CM25" s="73"/>
-      <c r="CN25" s="70"/>
-      <c r="CO25" s="70"/>
-      <c r="CP25" s="70"/>
-      <c r="CQ25" s="70"/>
-      <c r="CR25" s="73"/>
-      <c r="CS25" s="73"/>
-      <c r="CT25" s="73"/>
-      <c r="CU25" s="73"/>
-      <c r="CV25" s="71"/>
-      <c r="CW25" s="71"/>
-      <c r="CX25" s="71"/>
-      <c r="CY25" s="71"/>
-      <c r="CZ25" s="71"/>
-      <c r="DA25" s="71"/>
-      <c r="DB25" s="71"/>
-      <c r="DC25" s="71"/>
-      <c r="DD25" s="71"/>
-      <c r="DE25" s="71"/>
-      <c r="DF25" s="71"/>
-      <c r="DG25" s="71"/>
-      <c r="DH25" s="71"/>
-      <c r="DI25" s="71"/>
-      <c r="DJ25" s="71"/>
-      <c r="DK25" s="71"/>
-      <c r="DL25" s="71"/>
-      <c r="DM25" s="71"/>
-      <c r="DN25" s="71"/>
-      <c r="DO25" s="71"/>
-      <c r="DP25" s="71"/>
-      <c r="DQ25" s="71"/>
-      <c r="DR25" s="71"/>
-      <c r="DS25" s="71"/>
-      <c r="DT25" s="71"/>
-      <c r="DU25" s="71"/>
-      <c r="DV25" s="71"/>
-      <c r="DW25" s="71"/>
-      <c r="DX25" s="71"/>
-      <c r="DY25" s="71"/>
-      <c r="DZ25" s="71"/>
-      <c r="EA25" s="71"/>
-      <c r="EB25" s="71"/>
-      <c r="EC25" s="71"/>
-      <c r="ED25" s="71"/>
-      <c r="EE25" s="71"/>
-      <c r="EF25" s="71"/>
-      <c r="EG25" s="71"/>
-      <c r="EH25" s="71"/>
-      <c r="EI25" s="71"/>
-      <c r="EJ25" s="71"/>
-      <c r="EK25" s="71"/>
-      <c r="EL25" s="71"/>
+      <c r="CJ25" s="71"/>
+      <c r="CK25" s="71"/>
+      <c r="CL25" s="71"/>
+      <c r="CM25" s="71"/>
+      <c r="CN25" s="72"/>
+      <c r="CO25" s="72"/>
+      <c r="CP25" s="72"/>
+      <c r="CQ25" s="72"/>
+      <c r="CR25" s="71"/>
+      <c r="CS25" s="71"/>
+      <c r="CT25" s="71"/>
+      <c r="CU25" s="71"/>
+      <c r="CV25" s="73"/>
+      <c r="CW25" s="73"/>
+      <c r="CX25" s="73"/>
+      <c r="CY25" s="73"/>
+      <c r="CZ25" s="73"/>
+      <c r="DA25" s="73"/>
+      <c r="DB25" s="73"/>
+      <c r="DC25" s="73"/>
+      <c r="DD25" s="73"/>
+      <c r="DE25" s="73"/>
+      <c r="DF25" s="73"/>
+      <c r="DG25" s="73"/>
+      <c r="DH25" s="73"/>
+      <c r="DI25" s="73"/>
+      <c r="DJ25" s="73"/>
+      <c r="DK25" s="73"/>
+      <c r="DL25" s="73"/>
+      <c r="DM25" s="73"/>
+      <c r="DN25" s="73"/>
+      <c r="DO25" s="73"/>
+      <c r="DP25" s="73"/>
+      <c r="DQ25" s="73"/>
+      <c r="DR25" s="73"/>
+      <c r="DS25" s="73"/>
+      <c r="DT25" s="73"/>
+      <c r="DU25" s="73"/>
+      <c r="DV25" s="73"/>
+      <c r="DW25" s="73"/>
+      <c r="DX25" s="73"/>
+      <c r="DY25" s="73"/>
+      <c r="DZ25" s="73"/>
+      <c r="EA25" s="73"/>
+      <c r="EB25" s="73"/>
+      <c r="EC25" s="73"/>
+      <c r="ED25" s="73"/>
+      <c r="EE25" s="73"/>
+      <c r="EF25" s="73"/>
+      <c r="EG25" s="73"/>
+      <c r="EH25" s="73"/>
+      <c r="EI25" s="73"/>
+      <c r="EJ25" s="73"/>
+      <c r="EK25" s="73"/>
+      <c r="EL25" s="73"/>
     </row>
     <row r="26" spans="2:142">
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="L26" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
@@ -6627,7 +6790,7 @@
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
       <c r="M27" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P27" s="19"/>
       <c r="Q27" s="19"/>
@@ -6673,7 +6836,7 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="N28" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P28" s="19"/>
       <c r="Q28" s="19"/>
@@ -6719,7 +6882,7 @@
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="O29" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P29" s="19"/>
       <c r="Q29" s="19"/>
@@ -6769,7 +6932,7 @@
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
       <c r="O30" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P30" s="19"/>
       <c r="Q30" s="19"/>
@@ -6820,7 +6983,7 @@
       <c r="M31" s="19"/>
       <c r="N31" s="19"/>
       <c r="P31" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q31" s="19"/>
       <c r="R31" s="19"/>
@@ -6867,7 +7030,7 @@
       <c r="E32" s="19"/>
       <c r="N32" s="19"/>
       <c r="Q32" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R32" s="19"/>
       <c r="S32" s="19"/>
@@ -6911,7 +7074,7 @@
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="O33" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q33" s="19"/>
       <c r="R33" s="19"/>
@@ -7122,61 +7285,61 @@
       <c r="AY37" s="19"/>
       <c r="AZ37" s="19"/>
       <c r="BA37" s="19"/>
-      <c r="CJ37" s="73"/>
-      <c r="CK37" s="73"/>
-      <c r="CL37" s="73"/>
-      <c r="CM37" s="73"/>
-      <c r="CN37" s="70"/>
-      <c r="CO37" s="70"/>
-      <c r="CP37" s="70"/>
-      <c r="CQ37" s="70"/>
-      <c r="CR37" s="73"/>
-      <c r="CS37" s="73"/>
-      <c r="CT37" s="73"/>
-      <c r="CU37" s="73"/>
-      <c r="CV37" s="71"/>
-      <c r="CW37" s="71"/>
-      <c r="CX37" s="71"/>
-      <c r="CY37" s="71"/>
-      <c r="CZ37" s="71"/>
-      <c r="DA37" s="71"/>
-      <c r="DB37" s="71"/>
-      <c r="DC37" s="71"/>
-      <c r="DD37" s="71"/>
-      <c r="DE37" s="71"/>
-      <c r="DF37" s="71"/>
-      <c r="DG37" s="71"/>
-      <c r="DH37" s="71"/>
-      <c r="DI37" s="71"/>
-      <c r="DJ37" s="71"/>
-      <c r="DK37" s="71"/>
-      <c r="DL37" s="71"/>
-      <c r="DM37" s="71"/>
-      <c r="DN37" s="71"/>
-      <c r="DO37" s="71"/>
-      <c r="DP37" s="71"/>
-      <c r="DQ37" s="71"/>
-      <c r="DR37" s="71"/>
-      <c r="DS37" s="71"/>
-      <c r="DT37" s="71"/>
-      <c r="DU37" s="71"/>
-      <c r="DV37" s="71"/>
-      <c r="DW37" s="71"/>
-      <c r="DX37" s="71"/>
-      <c r="DY37" s="71"/>
-      <c r="DZ37" s="71"/>
-      <c r="EA37" s="71"/>
-      <c r="EB37" s="71"/>
-      <c r="EC37" s="71"/>
-      <c r="ED37" s="71"/>
-      <c r="EE37" s="71"/>
-      <c r="EF37" s="71"/>
-      <c r="EG37" s="71"/>
-      <c r="EH37" s="71"/>
-      <c r="EI37" s="71"/>
-      <c r="EJ37" s="71"/>
-      <c r="EK37" s="71"/>
-      <c r="EL37" s="71"/>
+      <c r="CJ37" s="71"/>
+      <c r="CK37" s="71"/>
+      <c r="CL37" s="71"/>
+      <c r="CM37" s="71"/>
+      <c r="CN37" s="72"/>
+      <c r="CO37" s="72"/>
+      <c r="CP37" s="72"/>
+      <c r="CQ37" s="72"/>
+      <c r="CR37" s="71"/>
+      <c r="CS37" s="71"/>
+      <c r="CT37" s="71"/>
+      <c r="CU37" s="71"/>
+      <c r="CV37" s="73"/>
+      <c r="CW37" s="73"/>
+      <c r="CX37" s="73"/>
+      <c r="CY37" s="73"/>
+      <c r="CZ37" s="73"/>
+      <c r="DA37" s="73"/>
+      <c r="DB37" s="73"/>
+      <c r="DC37" s="73"/>
+      <c r="DD37" s="73"/>
+      <c r="DE37" s="73"/>
+      <c r="DF37" s="73"/>
+      <c r="DG37" s="73"/>
+      <c r="DH37" s="73"/>
+      <c r="DI37" s="73"/>
+      <c r="DJ37" s="73"/>
+      <c r="DK37" s="73"/>
+      <c r="DL37" s="73"/>
+      <c r="DM37" s="73"/>
+      <c r="DN37" s="73"/>
+      <c r="DO37" s="73"/>
+      <c r="DP37" s="73"/>
+      <c r="DQ37" s="73"/>
+      <c r="DR37" s="73"/>
+      <c r="DS37" s="73"/>
+      <c r="DT37" s="73"/>
+      <c r="DU37" s="73"/>
+      <c r="DV37" s="73"/>
+      <c r="DW37" s="73"/>
+      <c r="DX37" s="73"/>
+      <c r="DY37" s="73"/>
+      <c r="DZ37" s="73"/>
+      <c r="EA37" s="73"/>
+      <c r="EB37" s="73"/>
+      <c r="EC37" s="73"/>
+      <c r="ED37" s="73"/>
+      <c r="EE37" s="73"/>
+      <c r="EF37" s="73"/>
+      <c r="EG37" s="73"/>
+      <c r="EH37" s="73"/>
+      <c r="EI37" s="73"/>
+      <c r="EJ37" s="73"/>
+      <c r="EK37" s="73"/>
+      <c r="EL37" s="73"/>
     </row>
     <row r="38" spans="2:142">
       <c r="B38" s="19"/>
@@ -7631,7 +7794,7 @@
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K48" s="19"/>
       <c r="L48" s="19"/>
@@ -7682,7 +7845,7 @@
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H49" s="19"/>
       <c r="J49" s="19"/>
@@ -7735,7 +7898,7 @@
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
       <c r="F50" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H50" s="19"/>
       <c r="J50" s="19"/>
@@ -7836,7 +7999,7 @@
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
       <c r="E52" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H52" s="19"/>
       <c r="J52" s="19"/>
@@ -7889,7 +8052,7 @@
       <c r="C53" s="19"/>
       <c r="D53" s="19"/>
       <c r="F53" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H53" s="19"/>
       <c r="J53" s="19"/>
@@ -7992,7 +8155,7 @@
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
       <c r="E55" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H55" s="19"/>
       <c r="J55" s="19"/>
@@ -8045,7 +8208,7 @@
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
       <c r="F56" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G56" s="19"/>
       <c r="J56" s="19"/>
@@ -8092,68 +8255,68 @@
       <c r="AY56" s="19"/>
       <c r="AZ56" s="19"/>
       <c r="BA56" s="19"/>
-      <c r="CJ56" s="73"/>
-      <c r="CK56" s="73"/>
-      <c r="CL56" s="73"/>
-      <c r="CM56" s="73"/>
-      <c r="CN56" s="70"/>
-      <c r="CO56" s="70"/>
-      <c r="CP56" s="70"/>
-      <c r="CQ56" s="70"/>
-      <c r="CR56" s="73"/>
-      <c r="CS56" s="73"/>
-      <c r="CT56" s="73"/>
-      <c r="CU56" s="73"/>
-      <c r="CV56" s="71"/>
-      <c r="CW56" s="71"/>
-      <c r="CX56" s="71"/>
-      <c r="CY56" s="71"/>
-      <c r="CZ56" s="71"/>
-      <c r="DA56" s="71"/>
-      <c r="DB56" s="71"/>
-      <c r="DC56" s="71"/>
-      <c r="DD56" s="71"/>
-      <c r="DE56" s="71"/>
-      <c r="DF56" s="71"/>
-      <c r="DG56" s="71"/>
-      <c r="DH56" s="71"/>
-      <c r="DI56" s="71"/>
-      <c r="DJ56" s="71"/>
-      <c r="DK56" s="71"/>
-      <c r="DL56" s="71"/>
-      <c r="DM56" s="71"/>
-      <c r="DN56" s="71"/>
-      <c r="DO56" s="71"/>
-      <c r="DP56" s="71"/>
-      <c r="DQ56" s="71"/>
-      <c r="DR56" s="71"/>
-      <c r="DS56" s="71"/>
-      <c r="DT56" s="71"/>
-      <c r="DU56" s="71"/>
-      <c r="DV56" s="71"/>
-      <c r="DW56" s="71"/>
-      <c r="DX56" s="71"/>
-      <c r="DY56" s="71"/>
-      <c r="DZ56" s="71"/>
-      <c r="EA56" s="71"/>
-      <c r="EB56" s="71"/>
-      <c r="EC56" s="71"/>
-      <c r="ED56" s="71"/>
-      <c r="EE56" s="71"/>
-      <c r="EF56" s="71"/>
-      <c r="EG56" s="71"/>
-      <c r="EH56" s="71"/>
-      <c r="EI56" s="71"/>
-      <c r="EJ56" s="71"/>
-      <c r="EK56" s="71"/>
-      <c r="EL56" s="71"/>
+      <c r="CJ56" s="71"/>
+      <c r="CK56" s="71"/>
+      <c r="CL56" s="71"/>
+      <c r="CM56" s="71"/>
+      <c r="CN56" s="72"/>
+      <c r="CO56" s="72"/>
+      <c r="CP56" s="72"/>
+      <c r="CQ56" s="72"/>
+      <c r="CR56" s="71"/>
+      <c r="CS56" s="71"/>
+      <c r="CT56" s="71"/>
+      <c r="CU56" s="71"/>
+      <c r="CV56" s="73"/>
+      <c r="CW56" s="73"/>
+      <c r="CX56" s="73"/>
+      <c r="CY56" s="73"/>
+      <c r="CZ56" s="73"/>
+      <c r="DA56" s="73"/>
+      <c r="DB56" s="73"/>
+      <c r="DC56" s="73"/>
+      <c r="DD56" s="73"/>
+      <c r="DE56" s="73"/>
+      <c r="DF56" s="73"/>
+      <c r="DG56" s="73"/>
+      <c r="DH56" s="73"/>
+      <c r="DI56" s="73"/>
+      <c r="DJ56" s="73"/>
+      <c r="DK56" s="73"/>
+      <c r="DL56" s="73"/>
+      <c r="DM56" s="73"/>
+      <c r="DN56" s="73"/>
+      <c r="DO56" s="73"/>
+      <c r="DP56" s="73"/>
+      <c r="DQ56" s="73"/>
+      <c r="DR56" s="73"/>
+      <c r="DS56" s="73"/>
+      <c r="DT56" s="73"/>
+      <c r="DU56" s="73"/>
+      <c r="DV56" s="73"/>
+      <c r="DW56" s="73"/>
+      <c r="DX56" s="73"/>
+      <c r="DY56" s="73"/>
+      <c r="DZ56" s="73"/>
+      <c r="EA56" s="73"/>
+      <c r="EB56" s="73"/>
+      <c r="EC56" s="73"/>
+      <c r="ED56" s="73"/>
+      <c r="EE56" s="73"/>
+      <c r="EF56" s="73"/>
+      <c r="EG56" s="73"/>
+      <c r="EH56" s="73"/>
+      <c r="EI56" s="73"/>
+      <c r="EJ56" s="73"/>
+      <c r="EK56" s="73"/>
+      <c r="EL56" s="73"/>
     </row>
     <row r="57" spans="2:142">
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
       <c r="G57" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H57" s="19"/>
       <c r="J57" s="19"/>
@@ -8206,7 +8369,7 @@
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
       <c r="F58" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G58" s="19"/>
       <c r="H58" s="19"/>
@@ -8260,7 +8423,7 @@
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
       <c r="G59" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H59" s="19"/>
       <c r="J59" s="19"/>
@@ -8364,7 +8527,7 @@
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
       <c r="E61" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F61" s="19"/>
       <c r="G61" s="19"/>
@@ -8420,7 +8583,7 @@
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
       <c r="F62" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G62" s="19"/>
       <c r="H62" s="19"/>
@@ -8475,7 +8638,7 @@
       <c r="D63" s="19"/>
       <c r="F63" s="19"/>
       <c r="G63" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H63" s="19"/>
       <c r="J63" s="19"/>
@@ -9006,61 +9169,61 @@
       <c r="AY72" s="19"/>
       <c r="AZ72" s="19"/>
       <c r="BA72" s="19"/>
-      <c r="CJ72" s="73"/>
-      <c r="CK72" s="73"/>
-      <c r="CL72" s="73"/>
-      <c r="CM72" s="73"/>
-      <c r="CN72" s="70"/>
-      <c r="CO72" s="70"/>
-      <c r="CP72" s="70"/>
-      <c r="CQ72" s="70"/>
-      <c r="CR72" s="73"/>
-      <c r="CS72" s="73"/>
-      <c r="CT72" s="73"/>
-      <c r="CU72" s="73"/>
-      <c r="CV72" s="71"/>
-      <c r="CW72" s="71"/>
-      <c r="CX72" s="71"/>
-      <c r="CY72" s="71"/>
-      <c r="CZ72" s="71"/>
-      <c r="DA72" s="71"/>
-      <c r="DB72" s="71"/>
-      <c r="DC72" s="71"/>
-      <c r="DD72" s="71"/>
-      <c r="DE72" s="71"/>
-      <c r="DF72" s="71"/>
-      <c r="DG72" s="71"/>
-      <c r="DH72" s="71"/>
-      <c r="DI72" s="71"/>
-      <c r="DJ72" s="71"/>
-      <c r="DK72" s="71"/>
-      <c r="DL72" s="71"/>
-      <c r="DM72" s="71"/>
-      <c r="DN72" s="71"/>
-      <c r="DO72" s="71"/>
-      <c r="DP72" s="71"/>
-      <c r="DQ72" s="71"/>
-      <c r="DR72" s="71"/>
-      <c r="DS72" s="71"/>
-      <c r="DT72" s="71"/>
-      <c r="DU72" s="71"/>
-      <c r="DV72" s="71"/>
-      <c r="DW72" s="71"/>
-      <c r="DX72" s="71"/>
-      <c r="DY72" s="71"/>
-      <c r="DZ72" s="71"/>
-      <c r="EA72" s="71"/>
-      <c r="EB72" s="71"/>
-      <c r="EC72" s="71"/>
-      <c r="ED72" s="71"/>
-      <c r="EE72" s="71"/>
-      <c r="EF72" s="71"/>
-      <c r="EG72" s="71"/>
-      <c r="EH72" s="71"/>
-      <c r="EI72" s="71"/>
-      <c r="EJ72" s="71"/>
-      <c r="EK72" s="71"/>
-      <c r="EL72" s="71"/>
+      <c r="CJ72" s="71"/>
+      <c r="CK72" s="71"/>
+      <c r="CL72" s="71"/>
+      <c r="CM72" s="71"/>
+      <c r="CN72" s="72"/>
+      <c r="CO72" s="72"/>
+      <c r="CP72" s="72"/>
+      <c r="CQ72" s="72"/>
+      <c r="CR72" s="71"/>
+      <c r="CS72" s="71"/>
+      <c r="CT72" s="71"/>
+      <c r="CU72" s="71"/>
+      <c r="CV72" s="73"/>
+      <c r="CW72" s="73"/>
+      <c r="CX72" s="73"/>
+      <c r="CY72" s="73"/>
+      <c r="CZ72" s="73"/>
+      <c r="DA72" s="73"/>
+      <c r="DB72" s="73"/>
+      <c r="DC72" s="73"/>
+      <c r="DD72" s="73"/>
+      <c r="DE72" s="73"/>
+      <c r="DF72" s="73"/>
+      <c r="DG72" s="73"/>
+      <c r="DH72" s="73"/>
+      <c r="DI72" s="73"/>
+      <c r="DJ72" s="73"/>
+      <c r="DK72" s="73"/>
+      <c r="DL72" s="73"/>
+      <c r="DM72" s="73"/>
+      <c r="DN72" s="73"/>
+      <c r="DO72" s="73"/>
+      <c r="DP72" s="73"/>
+      <c r="DQ72" s="73"/>
+      <c r="DR72" s="73"/>
+      <c r="DS72" s="73"/>
+      <c r="DT72" s="73"/>
+      <c r="DU72" s="73"/>
+      <c r="DV72" s="73"/>
+      <c r="DW72" s="73"/>
+      <c r="DX72" s="73"/>
+      <c r="DY72" s="73"/>
+      <c r="DZ72" s="73"/>
+      <c r="EA72" s="73"/>
+      <c r="EB72" s="73"/>
+      <c r="EC72" s="73"/>
+      <c r="ED72" s="73"/>
+      <c r="EE72" s="73"/>
+      <c r="EF72" s="73"/>
+      <c r="EG72" s="73"/>
+      <c r="EH72" s="73"/>
+      <c r="EI72" s="73"/>
+      <c r="EJ72" s="73"/>
+      <c r="EK72" s="73"/>
+      <c r="EL72" s="73"/>
     </row>
     <row r="73" spans="2:142">
       <c r="B73" s="19"/>
@@ -11625,16 +11788,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="EC2:EL2"/>
-    <mergeCell ref="AL3:AQ3"/>
-    <mergeCell ref="AR3:BA3"/>
-    <mergeCell ref="DW3:EB3"/>
-    <mergeCell ref="EC3:EL3"/>
-    <mergeCell ref="B2:AK3"/>
-    <mergeCell ref="AL2:AQ2"/>
-    <mergeCell ref="AR2:BA2"/>
-    <mergeCell ref="CJ2:DV3"/>
-    <mergeCell ref="DW2:EB2"/>
+    <mergeCell ref="CJ56:CM56"/>
+    <mergeCell ref="CN56:CQ56"/>
+    <mergeCell ref="CR56:CU56"/>
+    <mergeCell ref="CV56:EL56"/>
+    <mergeCell ref="CJ72:CM72"/>
+    <mergeCell ref="CN72:CQ72"/>
+    <mergeCell ref="CR72:CU72"/>
+    <mergeCell ref="CV72:EL72"/>
     <mergeCell ref="CJ25:CM25"/>
     <mergeCell ref="CN25:CQ25"/>
     <mergeCell ref="CR25:CU25"/>
@@ -11643,14 +11804,16 @@
     <mergeCell ref="CN37:CQ37"/>
     <mergeCell ref="CR37:CU37"/>
     <mergeCell ref="CV37:EL37"/>
-    <mergeCell ref="CJ56:CM56"/>
-    <mergeCell ref="CN56:CQ56"/>
-    <mergeCell ref="CR56:CU56"/>
-    <mergeCell ref="CV56:EL56"/>
-    <mergeCell ref="CJ72:CM72"/>
-    <mergeCell ref="CN72:CQ72"/>
-    <mergeCell ref="CR72:CU72"/>
-    <mergeCell ref="CV72:EL72"/>
+    <mergeCell ref="B2:AK3"/>
+    <mergeCell ref="AL2:AQ2"/>
+    <mergeCell ref="AR2:BA2"/>
+    <mergeCell ref="CJ2:DV3"/>
+    <mergeCell ref="DW2:EB2"/>
+    <mergeCell ref="EC2:EL2"/>
+    <mergeCell ref="AL3:AQ3"/>
+    <mergeCell ref="AR3:BA3"/>
+    <mergeCell ref="DW3:EB3"/>
+    <mergeCell ref="EC3:EL3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.71" right="0.39" top="0.59" bottom="0.59" header="0.39" footer="0.39"/>
@@ -11668,9 +11831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DFE129-E980-4F53-B4C2-2DAB1C282512}">
   <dimension ref="A1:EL121"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A31" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="Q73" sqref="Q73"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="15.75"/>
   <cols>
@@ -11683,232 +11844,232 @@
   <sheetData>
     <row r="1" spans="2:142" s="10" customFormat="1" ht="12.75" thickBot="1"/>
     <row r="2" spans="2:142" s="10" customFormat="1" ht="12.75" thickTop="1">
-      <c r="B2" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="64" t="s">
+      <c r="B2" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="62"/>
+      <c r="AG2" s="62"/>
+      <c r="AH2" s="62"/>
+      <c r="AI2" s="62"/>
+      <c r="AJ2" s="62"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="AM2" s="64"/>
-      <c r="AN2" s="64"/>
-      <c r="AO2" s="64"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="64"/>
-      <c r="AR2" s="65">
-        <v>43999</v>
-      </c>
-      <c r="AS2" s="65"/>
-      <c r="AT2" s="65"/>
-      <c r="AU2" s="65"/>
-      <c r="AV2" s="65"/>
-      <c r="AW2" s="65"/>
-      <c r="AX2" s="65"/>
-      <c r="AY2" s="65"/>
-      <c r="AZ2" s="65"/>
-      <c r="BA2" s="66"/>
-      <c r="CJ2" s="67"/>
-      <c r="CK2" s="67"/>
-      <c r="CL2" s="67"/>
-      <c r="CM2" s="67"/>
-      <c r="CN2" s="67"/>
-      <c r="CO2" s="67"/>
-      <c r="CP2" s="67"/>
-      <c r="CQ2" s="67"/>
-      <c r="CR2" s="67"/>
-      <c r="CS2" s="67"/>
-      <c r="CT2" s="67"/>
-      <c r="CU2" s="67"/>
-      <c r="CV2" s="67"/>
-      <c r="CW2" s="67"/>
-      <c r="CX2" s="67"/>
-      <c r="CY2" s="67"/>
-      <c r="CZ2" s="67"/>
-      <c r="DA2" s="67"/>
-      <c r="DB2" s="67"/>
-      <c r="DC2" s="67"/>
-      <c r="DD2" s="67"/>
-      <c r="DE2" s="67"/>
-      <c r="DF2" s="67"/>
-      <c r="DG2" s="67"/>
-      <c r="DH2" s="67"/>
-      <c r="DI2" s="67"/>
-      <c r="DJ2" s="67"/>
-      <c r="DK2" s="67"/>
-      <c r="DL2" s="67"/>
-      <c r="DM2" s="67"/>
-      <c r="DN2" s="67"/>
-      <c r="DO2" s="67"/>
-      <c r="DP2" s="67"/>
-      <c r="DQ2" s="67"/>
-      <c r="DR2" s="67"/>
-      <c r="DS2" s="67"/>
-      <c r="DT2" s="67"/>
-      <c r="DU2" s="67"/>
-      <c r="DV2" s="67"/>
-      <c r="DW2" s="69"/>
-      <c r="DX2" s="69"/>
-      <c r="DY2" s="69"/>
-      <c r="DZ2" s="69"/>
-      <c r="EA2" s="69"/>
-      <c r="EB2" s="69"/>
-      <c r="EC2" s="68"/>
-      <c r="ED2" s="68"/>
-      <c r="EE2" s="68"/>
-      <c r="EF2" s="68"/>
-      <c r="EG2" s="68"/>
-      <c r="EH2" s="68"/>
-      <c r="EI2" s="68"/>
-      <c r="EJ2" s="68"/>
-      <c r="EK2" s="68"/>
-      <c r="EL2" s="68"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="67"/>
+      <c r="AO2" s="67"/>
+      <c r="AP2" s="67"/>
+      <c r="AQ2" s="67"/>
+      <c r="AR2" s="68">
+        <v>44000</v>
+      </c>
+      <c r="AS2" s="68"/>
+      <c r="AT2" s="68"/>
+      <c r="AU2" s="68"/>
+      <c r="AV2" s="68"/>
+      <c r="AW2" s="68"/>
+      <c r="AX2" s="68"/>
+      <c r="AY2" s="68"/>
+      <c r="AZ2" s="68"/>
+      <c r="BA2" s="69"/>
+      <c r="CJ2" s="70"/>
+      <c r="CK2" s="70"/>
+      <c r="CL2" s="70"/>
+      <c r="CM2" s="70"/>
+      <c r="CN2" s="70"/>
+      <c r="CO2" s="70"/>
+      <c r="CP2" s="70"/>
+      <c r="CQ2" s="70"/>
+      <c r="CR2" s="70"/>
+      <c r="CS2" s="70"/>
+      <c r="CT2" s="70"/>
+      <c r="CU2" s="70"/>
+      <c r="CV2" s="70"/>
+      <c r="CW2" s="70"/>
+      <c r="CX2" s="70"/>
+      <c r="CY2" s="70"/>
+      <c r="CZ2" s="70"/>
+      <c r="DA2" s="70"/>
+      <c r="DB2" s="70"/>
+      <c r="DC2" s="70"/>
+      <c r="DD2" s="70"/>
+      <c r="DE2" s="70"/>
+      <c r="DF2" s="70"/>
+      <c r="DG2" s="70"/>
+      <c r="DH2" s="70"/>
+      <c r="DI2" s="70"/>
+      <c r="DJ2" s="70"/>
+      <c r="DK2" s="70"/>
+      <c r="DL2" s="70"/>
+      <c r="DM2" s="70"/>
+      <c r="DN2" s="70"/>
+      <c r="DO2" s="70"/>
+      <c r="DP2" s="70"/>
+      <c r="DQ2" s="70"/>
+      <c r="DR2" s="70"/>
+      <c r="DS2" s="70"/>
+      <c r="DT2" s="70"/>
+      <c r="DU2" s="70"/>
+      <c r="DV2" s="70"/>
+      <c r="DW2" s="59"/>
+      <c r="DX2" s="59"/>
+      <c r="DY2" s="59"/>
+      <c r="DZ2" s="59"/>
+      <c r="EA2" s="59"/>
+      <c r="EB2" s="59"/>
+      <c r="EC2" s="55"/>
+      <c r="ED2" s="55"/>
+      <c r="EE2" s="55"/>
+      <c r="EF2" s="55"/>
+      <c r="EG2" s="55"/>
+      <c r="EH2" s="55"/>
+      <c r="EI2" s="55"/>
+      <c r="EJ2" s="55"/>
+      <c r="EK2" s="55"/>
+      <c r="EL2" s="55"/>
     </row>
     <row r="3" spans="2:142" s="10" customFormat="1" ht="12.75" thickBot="1">
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="62"/>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="62"/>
-      <c r="AJ3" s="62"/>
-      <c r="AK3" s="63"/>
-      <c r="AL3" s="54" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="66"/>
+      <c r="AL3" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="54"/>
-      <c r="AQ3" s="54"/>
-      <c r="AR3" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="AS3" s="55"/>
-      <c r="AT3" s="55"/>
-      <c r="AU3" s="55"/>
-      <c r="AV3" s="55"/>
-      <c r="AW3" s="55"/>
-      <c r="AX3" s="55"/>
-      <c r="AY3" s="55"/>
-      <c r="AZ3" s="55"/>
-      <c r="BA3" s="56"/>
-      <c r="CJ3" s="67"/>
-      <c r="CK3" s="67"/>
-      <c r="CL3" s="67"/>
-      <c r="CM3" s="67"/>
-      <c r="CN3" s="67"/>
-      <c r="CO3" s="67"/>
-      <c r="CP3" s="67"/>
-      <c r="CQ3" s="67"/>
-      <c r="CR3" s="67"/>
-      <c r="CS3" s="67"/>
-      <c r="CT3" s="67"/>
-      <c r="CU3" s="67"/>
-      <c r="CV3" s="67"/>
-      <c r="CW3" s="67"/>
-      <c r="CX3" s="67"/>
-      <c r="CY3" s="67"/>
-      <c r="CZ3" s="67"/>
-      <c r="DA3" s="67"/>
-      <c r="DB3" s="67"/>
-      <c r="DC3" s="67"/>
-      <c r="DD3" s="67"/>
-      <c r="DE3" s="67"/>
-      <c r="DF3" s="67"/>
-      <c r="DG3" s="67"/>
-      <c r="DH3" s="67"/>
-      <c r="DI3" s="67"/>
-      <c r="DJ3" s="67"/>
-      <c r="DK3" s="67"/>
-      <c r="DL3" s="67"/>
-      <c r="DM3" s="67"/>
-      <c r="DN3" s="67"/>
-      <c r="DO3" s="67"/>
-      <c r="DP3" s="67"/>
-      <c r="DQ3" s="67"/>
-      <c r="DR3" s="67"/>
-      <c r="DS3" s="67"/>
-      <c r="DT3" s="67"/>
-      <c r="DU3" s="67"/>
-      <c r="DV3" s="67"/>
-      <c r="DW3" s="69"/>
-      <c r="DX3" s="69"/>
-      <c r="DY3" s="69"/>
-      <c r="DZ3" s="69"/>
-      <c r="EA3" s="69"/>
-      <c r="EB3" s="69"/>
-      <c r="EC3" s="57"/>
-      <c r="ED3" s="57"/>
-      <c r="EE3" s="57"/>
-      <c r="EF3" s="57"/>
-      <c r="EG3" s="57"/>
-      <c r="EH3" s="57"/>
-      <c r="EI3" s="57"/>
-      <c r="EJ3" s="57"/>
-      <c r="EK3" s="57"/>
-      <c r="EL3" s="57"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="56"/>
+      <c r="AP3" s="56"/>
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS3" s="57"/>
+      <c r="AT3" s="57"/>
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="57"/>
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="57"/>
+      <c r="BA3" s="58"/>
+      <c r="CJ3" s="70"/>
+      <c r="CK3" s="70"/>
+      <c r="CL3" s="70"/>
+      <c r="CM3" s="70"/>
+      <c r="CN3" s="70"/>
+      <c r="CO3" s="70"/>
+      <c r="CP3" s="70"/>
+      <c r="CQ3" s="70"/>
+      <c r="CR3" s="70"/>
+      <c r="CS3" s="70"/>
+      <c r="CT3" s="70"/>
+      <c r="CU3" s="70"/>
+      <c r="CV3" s="70"/>
+      <c r="CW3" s="70"/>
+      <c r="CX3" s="70"/>
+      <c r="CY3" s="70"/>
+      <c r="CZ3" s="70"/>
+      <c r="DA3" s="70"/>
+      <c r="DB3" s="70"/>
+      <c r="DC3" s="70"/>
+      <c r="DD3" s="70"/>
+      <c r="DE3" s="70"/>
+      <c r="DF3" s="70"/>
+      <c r="DG3" s="70"/>
+      <c r="DH3" s="70"/>
+      <c r="DI3" s="70"/>
+      <c r="DJ3" s="70"/>
+      <c r="DK3" s="70"/>
+      <c r="DL3" s="70"/>
+      <c r="DM3" s="70"/>
+      <c r="DN3" s="70"/>
+      <c r="DO3" s="70"/>
+      <c r="DP3" s="70"/>
+      <c r="DQ3" s="70"/>
+      <c r="DR3" s="70"/>
+      <c r="DS3" s="70"/>
+      <c r="DT3" s="70"/>
+      <c r="DU3" s="70"/>
+      <c r="DV3" s="70"/>
+      <c r="DW3" s="59"/>
+      <c r="DX3" s="59"/>
+      <c r="DY3" s="59"/>
+      <c r="DZ3" s="59"/>
+      <c r="EA3" s="59"/>
+      <c r="EB3" s="59"/>
+      <c r="EC3" s="60"/>
+      <c r="ED3" s="60"/>
+      <c r="EE3" s="60"/>
+      <c r="EF3" s="60"/>
+      <c r="EG3" s="60"/>
+      <c r="EH3" s="60"/>
+      <c r="EI3" s="60"/>
+      <c r="EJ3" s="60"/>
+      <c r="EK3" s="60"/>
+      <c r="EL3" s="60"/>
     </row>
     <row r="4" spans="2:142" s="10" customFormat="1" ht="12.75" thickTop="1">
       <c r="B4" s="11"/>
@@ -12030,7 +12191,7 @@
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
@@ -12143,7 +12304,7 @@
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
@@ -12256,7 +12417,9 @@
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+      <c r="E11" s="19" t="s">
+        <v>153</v>
+      </c>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -12369,7 +12532,7 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
@@ -12425,7 +12588,7 @@
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="J14" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K14" s="19"/>
       <c r="M14" s="19"/>
@@ -12475,10 +12638,10 @@
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="J15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>46</v>
       </c>
       <c r="S15" s="19"/>
       <c r="T15" s="19"/>
@@ -12618,18 +12781,8 @@
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
       <c r="E18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
+        <v>148</v>
+      </c>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
       <c r="T18" s="19"/>
@@ -12672,17 +12825,8 @@
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="F19" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
+        <v>149</v>
+      </c>
       <c r="R19" s="19"/>
       <c r="S19" s="19"/>
       <c r="T19" s="19"/>
@@ -12726,14 +12870,8 @@
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="G20" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
+        <v>150</v>
+      </c>
       <c r="R20" s="19"/>
       <c r="S20" s="19"/>
       <c r="T20" s="19"/>
@@ -12776,18 +12914,9 @@
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
-      <c r="H21" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
+      <c r="H21" s="14" t="s">
+        <v>156</v>
+      </c>
       <c r="R21" s="19"/>
       <c r="S21" s="19"/>
       <c r="T21" s="19"/>
@@ -12830,16 +12959,9 @@
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
-      <c r="I22" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
+      <c r="I22" s="14" t="s">
+        <v>151</v>
+      </c>
       <c r="R22" s="19"/>
       <c r="S22" s="19"/>
       <c r="T22" s="19"/>
@@ -12882,9 +13004,11 @@
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
-      <c r="I23" s="14" t="s">
-        <v>121</v>
-      </c>
+      <c r="E23" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
@@ -12893,7 +13017,6 @@
       <c r="O23" s="19"/>
       <c r="P23" s="19"/>
       <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
       <c r="S23" s="19"/>
       <c r="T23" s="19"/>
       <c r="U23" s="19"/>
@@ -12934,50 +13057,51 @@
       <c r="CO23" s="12"/>
       <c r="CP23" s="12"/>
       <c r="CQ23" s="12"/>
-      <c r="CR23" s="72"/>
-      <c r="CS23" s="72"/>
-      <c r="CT23" s="72"/>
-      <c r="CU23" s="72"/>
-      <c r="CV23" s="72"/>
-      <c r="CW23" s="72"/>
-      <c r="CX23" s="72"/>
-      <c r="CY23" s="72"/>
-      <c r="CZ23" s="72"/>
-      <c r="DA23" s="72"/>
-      <c r="DB23" s="72"/>
-      <c r="DC23" s="72"/>
-      <c r="DD23" s="72"/>
-      <c r="DE23" s="72"/>
-      <c r="DF23" s="72"/>
-      <c r="DG23" s="72"/>
-      <c r="DH23" s="72"/>
-      <c r="DI23" s="72"/>
+      <c r="CR23" s="26"/>
+      <c r="CS23" s="26"/>
+      <c r="CT23" s="26"/>
+      <c r="CU23" s="26"/>
+      <c r="CV23" s="26"/>
+      <c r="CW23" s="26"/>
+      <c r="CX23" s="26"/>
+      <c r="CY23" s="26"/>
+      <c r="CZ23" s="26"/>
+      <c r="DA23" s="26"/>
+      <c r="DB23" s="26"/>
+      <c r="DC23" s="26"/>
+      <c r="DD23" s="26"/>
+      <c r="DE23" s="26"/>
+      <c r="DF23" s="26"/>
+      <c r="DG23" s="26"/>
+      <c r="DH23" s="26"/>
+      <c r="DI23" s="26"/>
       <c r="DJ23" s="12"/>
       <c r="DK23" s="12"/>
       <c r="DL23" s="12"/>
       <c r="DM23" s="12"/>
       <c r="DN23" s="12"/>
-      <c r="DO23" s="72"/>
-      <c r="DP23" s="72"/>
-      <c r="DQ23" s="72"/>
-      <c r="DR23" s="72"/>
-      <c r="DS23" s="72"/>
-      <c r="DT23" s="72"/>
-      <c r="DU23" s="72"/>
-      <c r="DV23" s="72"/>
-      <c r="DW23" s="72"/>
-      <c r="DX23" s="72"/>
-      <c r="DY23" s="72"/>
-      <c r="DZ23" s="72"/>
+      <c r="DO23" s="26"/>
+      <c r="DP23" s="26"/>
+      <c r="DQ23" s="26"/>
+      <c r="DR23" s="26"/>
+      <c r="DS23" s="26"/>
+      <c r="DT23" s="26"/>
+      <c r="DU23" s="26"/>
+      <c r="DV23" s="26"/>
+      <c r="DW23" s="26"/>
+      <c r="DX23" s="26"/>
+      <c r="DY23" s="26"/>
+      <c r="DZ23" s="26"/>
     </row>
     <row r="24" spans="2:142">
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
+      <c r="F24" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="I24" s="19"/>
-      <c r="J24" s="14" t="s">
-        <v>119</v>
-      </c>
+      <c r="J24" s="19"/>
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
       <c r="M24" s="19"/>
@@ -12985,7 +13109,6 @@
       <c r="O24" s="19"/>
       <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
       <c r="S24" s="19"/>
       <c r="T24" s="19"/>
       <c r="U24" s="19"/>
@@ -13026,17 +13149,15 @@
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="J25" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="K25" s="19"/>
+      <c r="G25" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="L25" s="19"/>
       <c r="M25" s="19"/>
       <c r="N25" s="19"/>
       <c r="O25" s="19"/>
       <c r="P25" s="19"/>
       <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
       <c r="S25" s="19"/>
       <c r="T25" s="19"/>
       <c r="U25" s="19"/>
@@ -13072,79 +13193,78 @@
       <c r="AY25" s="19"/>
       <c r="AZ25" s="19"/>
       <c r="BA25" s="19"/>
-      <c r="CJ25" s="73"/>
-      <c r="CK25" s="73"/>
-      <c r="CL25" s="73"/>
-      <c r="CM25" s="73"/>
-      <c r="CN25" s="70"/>
-      <c r="CO25" s="70"/>
-      <c r="CP25" s="70"/>
-      <c r="CQ25" s="70"/>
-      <c r="CR25" s="73"/>
-      <c r="CS25" s="73"/>
-      <c r="CT25" s="73"/>
-      <c r="CU25" s="73"/>
-      <c r="CV25" s="71"/>
-      <c r="CW25" s="71"/>
-      <c r="CX25" s="71"/>
-      <c r="CY25" s="71"/>
-      <c r="CZ25" s="71"/>
-      <c r="DA25" s="71"/>
-      <c r="DB25" s="71"/>
-      <c r="DC25" s="71"/>
-      <c r="DD25" s="71"/>
-      <c r="DE25" s="71"/>
-      <c r="DF25" s="71"/>
-      <c r="DG25" s="71"/>
-      <c r="DH25" s="71"/>
-      <c r="DI25" s="71"/>
-      <c r="DJ25" s="71"/>
-      <c r="DK25" s="71"/>
-      <c r="DL25" s="71"/>
-      <c r="DM25" s="71"/>
-      <c r="DN25" s="71"/>
-      <c r="DO25" s="71"/>
-      <c r="DP25" s="71"/>
-      <c r="DQ25" s="71"/>
-      <c r="DR25" s="71"/>
-      <c r="DS25" s="71"/>
-      <c r="DT25" s="71"/>
-      <c r="DU25" s="71"/>
-      <c r="DV25" s="71"/>
-      <c r="DW25" s="71"/>
-      <c r="DX25" s="71"/>
-      <c r="DY25" s="71"/>
-      <c r="DZ25" s="71"/>
-      <c r="EA25" s="71"/>
-      <c r="EB25" s="71"/>
-      <c r="EC25" s="71"/>
-      <c r="ED25" s="71"/>
-      <c r="EE25" s="71"/>
-      <c r="EF25" s="71"/>
-      <c r="EG25" s="71"/>
-      <c r="EH25" s="71"/>
-      <c r="EI25" s="71"/>
-      <c r="EJ25" s="71"/>
-      <c r="EK25" s="71"/>
-      <c r="EL25" s="71"/>
+      <c r="CJ25" s="71"/>
+      <c r="CK25" s="71"/>
+      <c r="CL25" s="71"/>
+      <c r="CM25" s="71"/>
+      <c r="CN25" s="72"/>
+      <c r="CO25" s="72"/>
+      <c r="CP25" s="72"/>
+      <c r="CQ25" s="72"/>
+      <c r="CR25" s="71"/>
+      <c r="CS25" s="71"/>
+      <c r="CT25" s="71"/>
+      <c r="CU25" s="71"/>
+      <c r="CV25" s="73"/>
+      <c r="CW25" s="73"/>
+      <c r="CX25" s="73"/>
+      <c r="CY25" s="73"/>
+      <c r="CZ25" s="73"/>
+      <c r="DA25" s="73"/>
+      <c r="DB25" s="73"/>
+      <c r="DC25" s="73"/>
+      <c r="DD25" s="73"/>
+      <c r="DE25" s="73"/>
+      <c r="DF25" s="73"/>
+      <c r="DG25" s="73"/>
+      <c r="DH25" s="73"/>
+      <c r="DI25" s="73"/>
+      <c r="DJ25" s="73"/>
+      <c r="DK25" s="73"/>
+      <c r="DL25" s="73"/>
+      <c r="DM25" s="73"/>
+      <c r="DN25" s="73"/>
+      <c r="DO25" s="73"/>
+      <c r="DP25" s="73"/>
+      <c r="DQ25" s="73"/>
+      <c r="DR25" s="73"/>
+      <c r="DS25" s="73"/>
+      <c r="DT25" s="73"/>
+      <c r="DU25" s="73"/>
+      <c r="DV25" s="73"/>
+      <c r="DW25" s="73"/>
+      <c r="DX25" s="73"/>
+      <c r="DY25" s="73"/>
+      <c r="DZ25" s="73"/>
+      <c r="EA25" s="73"/>
+      <c r="EB25" s="73"/>
+      <c r="EC25" s="73"/>
+      <c r="ED25" s="73"/>
+      <c r="EE25" s="73"/>
+      <c r="EF25" s="73"/>
+      <c r="EG25" s="73"/>
+      <c r="EH25" s="73"/>
+      <c r="EI25" s="73"/>
+      <c r="EJ25" s="73"/>
+      <c r="EK25" s="73"/>
+      <c r="EL25" s="73"/>
     </row>
     <row r="26" spans="2:142">
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="J26" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="K26" s="14" t="s">
-        <v>118</v>
-      </c>
+      <c r="H26" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
       <c r="M26" s="19"/>
       <c r="N26" s="19"/>
       <c r="O26" s="19"/>
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
       <c r="S26" s="19"/>
       <c r="T26" s="19"/>
       <c r="U26" s="19"/>
@@ -13185,12 +13305,9 @@
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
-      <c r="F27" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
+      <c r="I27" s="19" t="s">
+        <v>119</v>
+      </c>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
@@ -13198,7 +13315,6 @@
       <c r="O27" s="19"/>
       <c r="P27" s="19"/>
       <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
       <c r="S27" s="19"/>
       <c r="T27" s="19"/>
       <c r="U27" s="19"/>
@@ -13239,18 +13355,17 @@
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
-      <c r="G28" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="I28" s="19"/>
+      <c r="I28" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
       <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
       <c r="O28" s="19"/>
       <c r="P28" s="19"/>
       <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
       <c r="S28" s="19"/>
       <c r="T28" s="19"/>
       <c r="U28" s="19"/>
@@ -13291,11 +13406,17 @@
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
       <c r="N29" s="19"/>
       <c r="O29" s="19"/>
       <c r="P29" s="19"/>
       <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
       <c r="S29" s="19"/>
       <c r="T29" s="19"/>
       <c r="U29" s="19"/>
@@ -13336,17 +13457,16 @@
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="14" t="s">
-        <v>34</v>
-      </c>
       <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
+      <c r="J30" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="K30" s="19"/>
+      <c r="M30" s="19"/>
       <c r="N30" s="19"/>
       <c r="O30" s="19"/>
       <c r="P30" s="19"/>
       <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
       <c r="S30" s="19"/>
       <c r="T30" s="19"/>
       <c r="U30" s="19"/>
@@ -13387,19 +13507,18 @@
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
-      <c r="F31" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="J31" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>117</v>
+      </c>
       <c r="M31" s="19"/>
       <c r="N31" s="19"/>
       <c r="O31" s="19"/>
       <c r="P31" s="19"/>
       <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
       <c r="S31" s="19"/>
       <c r="T31" s="19"/>
       <c r="U31" s="19"/>
@@ -13440,9 +13559,11 @@
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
-      <c r="G32" s="14" t="s">
-        <v>116</v>
-      </c>
+      <c r="F32" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="19"/>
+      <c r="I32" s="19"/>
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
       <c r="L32" s="19"/>
@@ -13451,7 +13572,6 @@
       <c r="O32" s="19"/>
       <c r="P32" s="19"/>
       <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
       <c r="S32" s="19"/>
       <c r="T32" s="19"/>
       <c r="U32" s="19"/>
@@ -13492,18 +13612,17 @@
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
-      <c r="H33" s="19" t="s">
-        <v>127</v>
+      <c r="G33" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="I33" s="19"/>
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
       <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
       <c r="O33" s="19"/>
       <c r="P33" s="19"/>
       <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
       <c r="S33" s="19"/>
       <c r="T33" s="19"/>
       <c r="U33" s="19"/>
@@ -13544,17 +13663,10 @@
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
-      <c r="I34" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="M34" s="19"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="19"/>
       <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
       <c r="S34" s="19"/>
       <c r="T34" s="19"/>
       <c r="U34" s="19"/>
@@ -13595,15 +13707,16 @@
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
-      <c r="J35" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="M35" s="19"/>
+      <c r="E35" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
       <c r="N35" s="19"/>
       <c r="O35" s="19"/>
       <c r="P35" s="19"/>
       <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
       <c r="S35" s="19"/>
       <c r="T35" s="19"/>
       <c r="U35" s="19"/>
@@ -13644,18 +13757,18 @@
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="I36" s="19" t="s">
-        <v>89</v>
-      </c>
+      <c r="F36" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I36" s="19"/>
       <c r="J36" s="19"/>
       <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
       <c r="M36" s="19"/>
       <c r="N36" s="19"/>
       <c r="O36" s="19"/>
       <c r="P36" s="19"/>
       <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
       <c r="S36" s="19"/>
       <c r="T36" s="19"/>
       <c r="U36" s="19"/>
@@ -13696,18 +13809,17 @@
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19" t="s">
-        <v>36</v>
-      </c>
+      <c r="G37" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J37" s="19"/>
       <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
       <c r="M37" s="19"/>
       <c r="N37" s="19"/>
       <c r="O37" s="19"/>
       <c r="P37" s="19"/>
       <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
       <c r="S37" s="19"/>
       <c r="T37" s="19"/>
       <c r="U37" s="19"/>
@@ -13743,75 +13855,77 @@
       <c r="AY37" s="19"/>
       <c r="AZ37" s="19"/>
       <c r="BA37" s="19"/>
-      <c r="CJ37" s="73"/>
-      <c r="CK37" s="73"/>
-      <c r="CL37" s="73"/>
-      <c r="CM37" s="73"/>
-      <c r="CN37" s="70"/>
-      <c r="CO37" s="70"/>
-      <c r="CP37" s="70"/>
-      <c r="CQ37" s="70"/>
-      <c r="CR37" s="73"/>
-      <c r="CS37" s="73"/>
-      <c r="CT37" s="73"/>
-      <c r="CU37" s="73"/>
-      <c r="CV37" s="71"/>
-      <c r="CW37" s="71"/>
-      <c r="CX37" s="71"/>
-      <c r="CY37" s="71"/>
-      <c r="CZ37" s="71"/>
-      <c r="DA37" s="71"/>
-      <c r="DB37" s="71"/>
-      <c r="DC37" s="71"/>
-      <c r="DD37" s="71"/>
-      <c r="DE37" s="71"/>
-      <c r="DF37" s="71"/>
-      <c r="DG37" s="71"/>
-      <c r="DH37" s="71"/>
-      <c r="DI37" s="71"/>
-      <c r="DJ37" s="71"/>
-      <c r="DK37" s="71"/>
-      <c r="DL37" s="71"/>
-      <c r="DM37" s="71"/>
-      <c r="DN37" s="71"/>
-      <c r="DO37" s="71"/>
-      <c r="DP37" s="71"/>
-      <c r="DQ37" s="71"/>
-      <c r="DR37" s="71"/>
-      <c r="DS37" s="71"/>
-      <c r="DT37" s="71"/>
-      <c r="DU37" s="71"/>
-      <c r="DV37" s="71"/>
-      <c r="DW37" s="71"/>
-      <c r="DX37" s="71"/>
-      <c r="DY37" s="71"/>
-      <c r="DZ37" s="71"/>
-      <c r="EA37" s="71"/>
-      <c r="EB37" s="71"/>
-      <c r="EC37" s="71"/>
-      <c r="ED37" s="71"/>
-      <c r="EE37" s="71"/>
-      <c r="EF37" s="71"/>
-      <c r="EG37" s="71"/>
-      <c r="EH37" s="71"/>
-      <c r="EI37" s="71"/>
-      <c r="EJ37" s="71"/>
-      <c r="EK37" s="71"/>
-      <c r="EL37" s="71"/>
+      <c r="CJ37" s="71"/>
+      <c r="CK37" s="71"/>
+      <c r="CL37" s="71"/>
+      <c r="CM37" s="71"/>
+      <c r="CN37" s="72"/>
+      <c r="CO37" s="72"/>
+      <c r="CP37" s="72"/>
+      <c r="CQ37" s="72"/>
+      <c r="CR37" s="71"/>
+      <c r="CS37" s="71"/>
+      <c r="CT37" s="71"/>
+      <c r="CU37" s="71"/>
+      <c r="CV37" s="73"/>
+      <c r="CW37" s="73"/>
+      <c r="CX37" s="73"/>
+      <c r="CY37" s="73"/>
+      <c r="CZ37" s="73"/>
+      <c r="DA37" s="73"/>
+      <c r="DB37" s="73"/>
+      <c r="DC37" s="73"/>
+      <c r="DD37" s="73"/>
+      <c r="DE37" s="73"/>
+      <c r="DF37" s="73"/>
+      <c r="DG37" s="73"/>
+      <c r="DH37" s="73"/>
+      <c r="DI37" s="73"/>
+      <c r="DJ37" s="73"/>
+      <c r="DK37" s="73"/>
+      <c r="DL37" s="73"/>
+      <c r="DM37" s="73"/>
+      <c r="DN37" s="73"/>
+      <c r="DO37" s="73"/>
+      <c r="DP37" s="73"/>
+      <c r="DQ37" s="73"/>
+      <c r="DR37" s="73"/>
+      <c r="DS37" s="73"/>
+      <c r="DT37" s="73"/>
+      <c r="DU37" s="73"/>
+      <c r="DV37" s="73"/>
+      <c r="DW37" s="73"/>
+      <c r="DX37" s="73"/>
+      <c r="DY37" s="73"/>
+      <c r="DZ37" s="73"/>
+      <c r="EA37" s="73"/>
+      <c r="EB37" s="73"/>
+      <c r="EC37" s="73"/>
+      <c r="ED37" s="73"/>
+      <c r="EE37" s="73"/>
+      <c r="EF37" s="73"/>
+      <c r="EG37" s="73"/>
+      <c r="EH37" s="73"/>
+      <c r="EI37" s="73"/>
+      <c r="EJ37" s="73"/>
+      <c r="EK37" s="73"/>
+      <c r="EL37" s="73"/>
     </row>
     <row r="38" spans="2:142">
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
-      <c r="L38" s="14" t="s">
+      <c r="H38" s="19" t="s">
         <v>124</v>
       </c>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
       <c r="M38" s="19"/>
       <c r="N38" s="19"/>
       <c r="O38" s="19"/>
       <c r="P38" s="19"/>
       <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
       <c r="S38" s="19"/>
       <c r="T38" s="19"/>
       <c r="U38" s="19"/>
@@ -13852,16 +13966,16 @@
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
-      <c r="H39" s="19" t="s">
-        <v>38</v>
+      <c r="I39" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
       <c r="M39" s="19"/>
       <c r="N39" s="19"/>
       <c r="O39" s="19"/>
       <c r="P39" s="19"/>
       <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
       <c r="S39" s="19"/>
       <c r="T39" s="19"/>
       <c r="U39" s="19"/>
@@ -13902,17 +14016,14 @@
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="I40" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="J40" s="19"/>
+      <c r="J40" s="14" t="s">
+        <v>122</v>
+      </c>
       <c r="M40" s="19"/>
       <c r="N40" s="19"/>
       <c r="O40" s="19"/>
       <c r="P40" s="19"/>
       <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
       <c r="S40" s="19"/>
       <c r="T40" s="19"/>
       <c r="U40" s="19"/>
@@ -13953,18 +14064,17 @@
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="H41" s="19" t="s">
+        <v>88</v>
+      </c>
       <c r="I41" s="19"/>
-      <c r="J41" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
+      <c r="J41" s="19"/>
       <c r="M41" s="19"/>
       <c r="N41" s="19"/>
       <c r="O41" s="19"/>
       <c r="P41" s="19"/>
       <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
       <c r="S41" s="19"/>
       <c r="T41" s="19"/>
       <c r="U41" s="19"/>
@@ -14005,18 +14115,17 @@
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="I42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19" t="s">
+        <v>35</v>
+      </c>
       <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
       <c r="M42" s="19"/>
       <c r="N42" s="19"/>
       <c r="O42" s="19"/>
       <c r="P42" s="19"/>
       <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
       <c r="S42" s="19"/>
       <c r="T42" s="19"/>
       <c r="U42" s="19"/>
@@ -14057,19 +14166,14 @@
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
+      <c r="J43" s="14" t="s">
+        <v>152</v>
+      </c>
       <c r="M43" s="19"/>
       <c r="N43" s="19"/>
       <c r="O43" s="19"/>
       <c r="P43" s="19"/>
       <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
       <c r="S43" s="19"/>
       <c r="T43" s="19"/>
       <c r="U43" s="19"/>
@@ -14110,16 +14214,15 @@
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
+      <c r="I44" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
       <c r="M44" s="19"/>
       <c r="N44" s="19"/>
       <c r="O44" s="19"/>
       <c r="P44" s="19"/>
       <c r="Q44" s="19"/>
-      <c r="R44" s="19"/>
       <c r="S44" s="19"/>
       <c r="T44" s="19"/>
       <c r="U44" s="19"/>
@@ -14160,17 +14263,16 @@
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="J45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="J45" s="19" t="s">
+        <v>157</v>
+      </c>
       <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
       <c r="M45" s="19"/>
       <c r="N45" s="19"/>
       <c r="O45" s="19"/>
       <c r="P45" s="19"/>
       <c r="Q45" s="19"/>
-      <c r="R45" s="19"/>
       <c r="S45" s="19"/>
       <c r="T45" s="19"/>
       <c r="U45" s="19"/>
@@ -14211,16 +14313,16 @@
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="K46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19" t="s">
+        <v>123</v>
+      </c>
       <c r="L46" s="19"/>
       <c r="M46" s="19"/>
       <c r="N46" s="19"/>
       <c r="O46" s="19"/>
       <c r="P46" s="19"/>
       <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
       <c r="S46" s="19"/>
       <c r="T46" s="19"/>
       <c r="U46" s="19"/>
@@ -14361,7 +14463,7 @@
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
       <c r="D49" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I49" s="19"/>
       <c r="J49" s="19"/>
@@ -14411,7 +14513,7 @@
     </row>
     <row r="50" spans="2:142">
       <c r="E50" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K50" s="19"/>
       <c r="L50" s="19"/>
@@ -14460,7 +14562,7 @@
     <row r="51" spans="2:142">
       <c r="E51" s="19"/>
       <c r="F51" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G51" s="19"/>
       <c r="K51" s="19"/>
@@ -14556,9 +14658,8 @@
       <c r="C53" s="19"/>
       <c r="D53" s="19"/>
       <c r="E53" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="F53" s="19"/>
+        <v>154</v>
+      </c>
       <c r="L53" s="19"/>
       <c r="M53" s="19"/>
       <c r="N53" s="19"/>
@@ -14607,9 +14708,8 @@
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
       <c r="F54" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G54" s="19"/>
+        <v>114</v>
+      </c>
       <c r="L54" s="19"/>
       <c r="M54" s="19"/>
       <c r="N54" s="19"/>
@@ -14657,8 +14757,6 @@
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="I55" s="19"/>
       <c r="J55" s="19"/>
       <c r="K55" s="19"/>
       <c r="L55" s="19"/>
@@ -14708,11 +14806,10 @@
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
-      <c r="E56" s="19" t="s">
+      <c r="E56" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="G56" s="19"/>
-      <c r="I56" s="19"/>
+      <c r="F56" s="19"/>
       <c r="J56" s="19"/>
       <c r="K56" s="19"/>
       <c r="L56" s="19"/>
@@ -14757,71 +14854,70 @@
       <c r="AY56" s="19"/>
       <c r="AZ56" s="19"/>
       <c r="BA56" s="19"/>
-      <c r="CJ56" s="73"/>
-      <c r="CK56" s="73"/>
-      <c r="CL56" s="73"/>
-      <c r="CM56" s="73"/>
-      <c r="CN56" s="70"/>
-      <c r="CO56" s="70"/>
-      <c r="CP56" s="70"/>
-      <c r="CQ56" s="70"/>
-      <c r="CR56" s="73"/>
-      <c r="CS56" s="73"/>
-      <c r="CT56" s="73"/>
-      <c r="CU56" s="73"/>
-      <c r="CV56" s="71"/>
-      <c r="CW56" s="71"/>
-      <c r="CX56" s="71"/>
-      <c r="CY56" s="71"/>
-      <c r="CZ56" s="71"/>
-      <c r="DA56" s="71"/>
-      <c r="DB56" s="71"/>
-      <c r="DC56" s="71"/>
-      <c r="DD56" s="71"/>
-      <c r="DE56" s="71"/>
-      <c r="DF56" s="71"/>
-      <c r="DG56" s="71"/>
-      <c r="DH56" s="71"/>
-      <c r="DI56" s="71"/>
-      <c r="DJ56" s="71"/>
-      <c r="DK56" s="71"/>
-      <c r="DL56" s="71"/>
-      <c r="DM56" s="71"/>
-      <c r="DN56" s="71"/>
-      <c r="DO56" s="71"/>
-      <c r="DP56" s="71"/>
-      <c r="DQ56" s="71"/>
-      <c r="DR56" s="71"/>
-      <c r="DS56" s="71"/>
-      <c r="DT56" s="71"/>
-      <c r="DU56" s="71"/>
-      <c r="DV56" s="71"/>
-      <c r="DW56" s="71"/>
-      <c r="DX56" s="71"/>
-      <c r="DY56" s="71"/>
-      <c r="DZ56" s="71"/>
-      <c r="EA56" s="71"/>
-      <c r="EB56" s="71"/>
-      <c r="EC56" s="71"/>
-      <c r="ED56" s="71"/>
-      <c r="EE56" s="71"/>
-      <c r="EF56" s="71"/>
-      <c r="EG56" s="71"/>
-      <c r="EH56" s="71"/>
-      <c r="EI56" s="71"/>
-      <c r="EJ56" s="71"/>
-      <c r="EK56" s="71"/>
-      <c r="EL56" s="71"/>
+      <c r="CJ56" s="71"/>
+      <c r="CK56" s="71"/>
+      <c r="CL56" s="71"/>
+      <c r="CM56" s="71"/>
+      <c r="CN56" s="72"/>
+      <c r="CO56" s="72"/>
+      <c r="CP56" s="72"/>
+      <c r="CQ56" s="72"/>
+      <c r="CR56" s="71"/>
+      <c r="CS56" s="71"/>
+      <c r="CT56" s="71"/>
+      <c r="CU56" s="71"/>
+      <c r="CV56" s="73"/>
+      <c r="CW56" s="73"/>
+      <c r="CX56" s="73"/>
+      <c r="CY56" s="73"/>
+      <c r="CZ56" s="73"/>
+      <c r="DA56" s="73"/>
+      <c r="DB56" s="73"/>
+      <c r="DC56" s="73"/>
+      <c r="DD56" s="73"/>
+      <c r="DE56" s="73"/>
+      <c r="DF56" s="73"/>
+      <c r="DG56" s="73"/>
+      <c r="DH56" s="73"/>
+      <c r="DI56" s="73"/>
+      <c r="DJ56" s="73"/>
+      <c r="DK56" s="73"/>
+      <c r="DL56" s="73"/>
+      <c r="DM56" s="73"/>
+      <c r="DN56" s="73"/>
+      <c r="DO56" s="73"/>
+      <c r="DP56" s="73"/>
+      <c r="DQ56" s="73"/>
+      <c r="DR56" s="73"/>
+      <c r="DS56" s="73"/>
+      <c r="DT56" s="73"/>
+      <c r="DU56" s="73"/>
+      <c r="DV56" s="73"/>
+      <c r="DW56" s="73"/>
+      <c r="DX56" s="73"/>
+      <c r="DY56" s="73"/>
+      <c r="DZ56" s="73"/>
+      <c r="EA56" s="73"/>
+      <c r="EB56" s="73"/>
+      <c r="EC56" s="73"/>
+      <c r="ED56" s="73"/>
+      <c r="EE56" s="73"/>
+      <c r="EF56" s="73"/>
+      <c r="EG56" s="73"/>
+      <c r="EH56" s="73"/>
+      <c r="EI56" s="73"/>
+      <c r="EJ56" s="73"/>
+      <c r="EK56" s="73"/>
+      <c r="EL56" s="73"/>
     </row>
     <row r="57" spans="2:142">
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
       <c r="F57" s="14" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="G57" s="19"/>
-      <c r="I57" s="19"/>
       <c r="J57" s="19"/>
       <c r="K57" s="19"/>
       <c r="L57" s="19"/>
@@ -14871,9 +14967,7 @@
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
-      <c r="G58" s="19" t="s">
-        <v>132</v>
-      </c>
+      <c r="G58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="19"/>
       <c r="K58" s="19"/>
@@ -14924,6 +15018,10 @@
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
+      <c r="E59" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="G59" s="19"/>
       <c r="I59" s="19"/>
       <c r="J59" s="19"/>
       <c r="K59" s="19"/>
@@ -14974,10 +15072,9 @@
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
-      <c r="E60" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F60" s="19"/>
+      <c r="F60" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="G60" s="19"/>
       <c r="I60" s="19"/>
       <c r="J60" s="19"/>
@@ -15030,8 +15127,8 @@
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
-      <c r="F61" s="14" t="s">
-        <v>133</v>
+      <c r="G61" s="19" t="s">
+        <v>129</v>
       </c>
       <c r="I61" s="19"/>
       <c r="J61" s="19"/>
@@ -15083,8 +15180,8 @@
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
-      <c r="G62" s="14" t="s">
-        <v>132</v>
+      <c r="F62" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="I62" s="19"/>
       <c r="J62" s="19"/>
@@ -15136,6 +15233,10 @@
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
       <c r="D63" s="19"/>
+      <c r="G63" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="I63" s="19"/>
       <c r="J63" s="19"/>
       <c r="K63" s="19"/>
       <c r="L63" s="19"/>
@@ -15185,10 +15286,9 @@
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
-      <c r="E64" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F64" s="19"/>
+      <c r="G64" s="14" t="s">
+        <v>158</v>
+      </c>
       <c r="I64" s="19"/>
       <c r="J64" s="19"/>
       <c r="K64" s="19"/>
@@ -15239,11 +15339,9 @@
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
-      <c r="F65" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
+      <c r="G65" s="14" t="s">
+        <v>159</v>
+      </c>
       <c r="I65" s="19"/>
       <c r="J65" s="19"/>
       <c r="K65" s="19"/>
@@ -15294,11 +15392,6 @@
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
       <c r="J66" s="19"/>
       <c r="K66" s="19"/>
       <c r="L66" s="19"/>
@@ -15348,12 +15441,11 @@
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
-      <c r="E67" s="14" t="s">
-        <v>130</v>
+      <c r="E67" s="19" t="s">
+        <v>113</v>
       </c>
       <c r="F67" s="19"/>
       <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
       <c r="I67" s="19"/>
       <c r="J67" s="19"/>
       <c r="K67" s="19"/>
@@ -15404,12 +15496,9 @@
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
+      <c r="F68" s="14" t="s">
+        <v>130</v>
+      </c>
       <c r="I68" s="19"/>
       <c r="J68" s="19"/>
       <c r="K68" s="19"/>
@@ -15460,10 +15549,9 @@
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
+      <c r="G69" s="14" t="s">
+        <v>129</v>
+      </c>
       <c r="I69" s="19"/>
       <c r="J69" s="19"/>
       <c r="K69" s="19"/>
@@ -15514,9 +15602,6 @@
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
       <c r="J70" s="19"/>
@@ -15568,9 +15653,10 @@
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
+      <c r="E71" s="14" t="s">
+        <v>126</v>
+      </c>
       <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
       <c r="J71" s="19"/>
@@ -15622,16 +15708,11 @@
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
+      <c r="F72" s="19" t="s">
+        <v>114</v>
+      </c>
       <c r="G72" s="19"/>
       <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="19"/>
-      <c r="K72" s="19"/>
-      <c r="L72" s="19"/>
-      <c r="M72" s="19"/>
-      <c r="N72" s="19"/>
       <c r="O72" s="19"/>
       <c r="P72" s="19"/>
       <c r="Q72" s="19"/>
@@ -15671,61 +15752,61 @@
       <c r="AY72" s="19"/>
       <c r="AZ72" s="19"/>
       <c r="BA72" s="19"/>
-      <c r="CJ72" s="73"/>
-      <c r="CK72" s="73"/>
-      <c r="CL72" s="73"/>
-      <c r="CM72" s="73"/>
-      <c r="CN72" s="70"/>
-      <c r="CO72" s="70"/>
-      <c r="CP72" s="70"/>
-      <c r="CQ72" s="70"/>
-      <c r="CR72" s="73"/>
-      <c r="CS72" s="73"/>
-      <c r="CT72" s="73"/>
-      <c r="CU72" s="73"/>
-      <c r="CV72" s="71"/>
-      <c r="CW72" s="71"/>
-      <c r="CX72" s="71"/>
-      <c r="CY72" s="71"/>
-      <c r="CZ72" s="71"/>
-      <c r="DA72" s="71"/>
-      <c r="DB72" s="71"/>
-      <c r="DC72" s="71"/>
-      <c r="DD72" s="71"/>
-      <c r="DE72" s="71"/>
-      <c r="DF72" s="71"/>
-      <c r="DG72" s="71"/>
-      <c r="DH72" s="71"/>
-      <c r="DI72" s="71"/>
-      <c r="DJ72" s="71"/>
-      <c r="DK72" s="71"/>
-      <c r="DL72" s="71"/>
-      <c r="DM72" s="71"/>
-      <c r="DN72" s="71"/>
-      <c r="DO72" s="71"/>
-      <c r="DP72" s="71"/>
-      <c r="DQ72" s="71"/>
-      <c r="DR72" s="71"/>
-      <c r="DS72" s="71"/>
-      <c r="DT72" s="71"/>
-      <c r="DU72" s="71"/>
-      <c r="DV72" s="71"/>
-      <c r="DW72" s="71"/>
-      <c r="DX72" s="71"/>
-      <c r="DY72" s="71"/>
-      <c r="DZ72" s="71"/>
-      <c r="EA72" s="71"/>
-      <c r="EB72" s="71"/>
-      <c r="EC72" s="71"/>
-      <c r="ED72" s="71"/>
-      <c r="EE72" s="71"/>
-      <c r="EF72" s="71"/>
-      <c r="EG72" s="71"/>
-      <c r="EH72" s="71"/>
-      <c r="EI72" s="71"/>
-      <c r="EJ72" s="71"/>
-      <c r="EK72" s="71"/>
-      <c r="EL72" s="71"/>
+      <c r="CJ72" s="71"/>
+      <c r="CK72" s="71"/>
+      <c r="CL72" s="71"/>
+      <c r="CM72" s="71"/>
+      <c r="CN72" s="72"/>
+      <c r="CO72" s="72"/>
+      <c r="CP72" s="72"/>
+      <c r="CQ72" s="72"/>
+      <c r="CR72" s="71"/>
+      <c r="CS72" s="71"/>
+      <c r="CT72" s="71"/>
+      <c r="CU72" s="71"/>
+      <c r="CV72" s="73"/>
+      <c r="CW72" s="73"/>
+      <c r="CX72" s="73"/>
+      <c r="CY72" s="73"/>
+      <c r="CZ72" s="73"/>
+      <c r="DA72" s="73"/>
+      <c r="DB72" s="73"/>
+      <c r="DC72" s="73"/>
+      <c r="DD72" s="73"/>
+      <c r="DE72" s="73"/>
+      <c r="DF72" s="73"/>
+      <c r="DG72" s="73"/>
+      <c r="DH72" s="73"/>
+      <c r="DI72" s="73"/>
+      <c r="DJ72" s="73"/>
+      <c r="DK72" s="73"/>
+      <c r="DL72" s="73"/>
+      <c r="DM72" s="73"/>
+      <c r="DN72" s="73"/>
+      <c r="DO72" s="73"/>
+      <c r="DP72" s="73"/>
+      <c r="DQ72" s="73"/>
+      <c r="DR72" s="73"/>
+      <c r="DS72" s="73"/>
+      <c r="DT72" s="73"/>
+      <c r="DU72" s="73"/>
+      <c r="DV72" s="73"/>
+      <c r="DW72" s="73"/>
+      <c r="DX72" s="73"/>
+      <c r="DY72" s="73"/>
+      <c r="DZ72" s="73"/>
+      <c r="EA72" s="73"/>
+      <c r="EB72" s="73"/>
+      <c r="EC72" s="73"/>
+      <c r="ED72" s="73"/>
+      <c r="EE72" s="73"/>
+      <c r="EF72" s="73"/>
+      <c r="EG72" s="73"/>
+      <c r="EH72" s="73"/>
+      <c r="EI72" s="73"/>
+      <c r="EJ72" s="73"/>
+      <c r="EK72" s="73"/>
+      <c r="EL72" s="73"/>
     </row>
     <row r="73" spans="2:142">
       <c r="B73" s="19"/>
@@ -15735,12 +15816,6 @@
       <c r="F73" s="19"/>
       <c r="G73" s="19"/>
       <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="19"/>
-      <c r="L73" s="19"/>
-      <c r="M73" s="19"/>
-      <c r="N73" s="19"/>
       <c r="O73" s="19"/>
       <c r="P73" s="19"/>
       <c r="Q73" s="19"/>
@@ -15785,10 +15860,11 @@
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
+      <c r="E74" s="14" t="s">
+        <v>127</v>
+      </c>
       <c r="F74" s="19"/>
       <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
       <c r="I74" s="19"/>
       <c r="J74" s="19"/>
       <c r="K74" s="19"/>
@@ -15840,7 +15916,9 @@
       <c r="C75" s="19"/>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
+      <c r="F75" s="19" t="s">
+        <v>114</v>
+      </c>
       <c r="G75" s="19"/>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -15893,9 +15971,6 @@
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
       <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
       <c r="J76" s="19"/>
@@ -18290,16 +18365,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="EC2:EL2"/>
-    <mergeCell ref="AL3:AQ3"/>
-    <mergeCell ref="AR3:BA3"/>
-    <mergeCell ref="DW3:EB3"/>
-    <mergeCell ref="EC3:EL3"/>
-    <mergeCell ref="B2:AK3"/>
-    <mergeCell ref="AL2:AQ2"/>
-    <mergeCell ref="AR2:BA2"/>
-    <mergeCell ref="CJ2:DV3"/>
-    <mergeCell ref="DW2:EB2"/>
+    <mergeCell ref="CJ56:CM56"/>
+    <mergeCell ref="CN56:CQ56"/>
+    <mergeCell ref="CR56:CU56"/>
+    <mergeCell ref="CV56:EL56"/>
+    <mergeCell ref="CJ72:CM72"/>
+    <mergeCell ref="CN72:CQ72"/>
+    <mergeCell ref="CR72:CU72"/>
+    <mergeCell ref="CV72:EL72"/>
     <mergeCell ref="CJ25:CM25"/>
     <mergeCell ref="CN25:CQ25"/>
     <mergeCell ref="CR25:CU25"/>
@@ -18308,14 +18381,16 @@
     <mergeCell ref="CN37:CQ37"/>
     <mergeCell ref="CR37:CU37"/>
     <mergeCell ref="CV37:EL37"/>
-    <mergeCell ref="CJ56:CM56"/>
-    <mergeCell ref="CN56:CQ56"/>
-    <mergeCell ref="CR56:CU56"/>
-    <mergeCell ref="CV56:EL56"/>
-    <mergeCell ref="CJ72:CM72"/>
-    <mergeCell ref="CN72:CQ72"/>
-    <mergeCell ref="CR72:CU72"/>
-    <mergeCell ref="CV72:EL72"/>
+    <mergeCell ref="B2:AK3"/>
+    <mergeCell ref="AL2:AQ2"/>
+    <mergeCell ref="AR2:BA2"/>
+    <mergeCell ref="CJ2:DV3"/>
+    <mergeCell ref="DW2:EB2"/>
+    <mergeCell ref="EC2:EL2"/>
+    <mergeCell ref="AL3:AQ3"/>
+    <mergeCell ref="AR3:BA3"/>
+    <mergeCell ref="DW3:EB3"/>
+    <mergeCell ref="EC3:EL3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.71" right="0.39" top="0.59" bottom="0.59" header="0.39" footer="0.39"/>

--- a/詳細設計/グループ開発_詳細設計_大城.xlsx
+++ b/詳細設計/グループ開発_詳細設計_大城.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\git\groupA\詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA7041D-3878-487B-89DB-501071870F31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77C752B-14DF-4459-AB07-74A386F9B364}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コーディング規約" sheetId="16" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="163">
   <si>
     <t>機能一覧</t>
     <rPh sb="0" eb="2">
@@ -848,22 +848,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>ログインサービスのログインデータ照合メソッドで引数とusersテーブルの結果を比較する</t>
-    <rPh sb="16" eb="18">
-      <t>ショウゴウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ヒカク</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>もし一致しなかったら、ログインデータ照合メソッドの戻り値にログイン画面を示す文字列を返す</t>
     <rPh sb="2" eb="4">
       <t>イッチ</t>
@@ -1834,6 +1818,39 @@
     </rPh>
     <rPh sb="23" eb="27">
       <t>モジレツガタ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ログインデータ照合メソッドで引数とusersテーブルの結果を比較する</t>
+    <rPh sb="7" eb="9">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒカク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>データの受け渡し</t>
+    <rPh sb="4" eb="5">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ログインコントローラのメソッドが実行される</t>
+    <rPh sb="16" eb="18">
+      <t>ジッコウ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -2401,6 +2418,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2452,56 +2502,14 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2533,14 +2541,23 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2884,60 +2901,60 @@
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="C14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="C15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="C16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="C17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="C18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="C19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" t="s">
         <v>144</v>
-      </c>
-      <c r="E19" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="C20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -2982,7 +2999,7 @@
     </row>
     <row r="30" spans="2:6">
       <c r="B30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="2:6">
@@ -3027,12 +3044,12 @@
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3066,178 +3083,178 @@
   <sheetData>
     <row r="1" spans="2:49" ht="1.1499999999999999" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:49" ht="13.5" customHeight="1" thickTop="1">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
-      <c r="AU2" s="33"/>
-      <c r="AV2" s="33"/>
-      <c r="AW2" s="34"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="44"/>
+      <c r="AW2" s="45"/>
     </row>
     <row r="3" spans="2:49" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="37"/>
-      <c r="AO3" s="37"/>
-      <c r="AP3" s="37"/>
-      <c r="AQ3" s="37"/>
-      <c r="AR3" s="37"/>
-      <c r="AS3" s="37"/>
-      <c r="AT3" s="37"/>
-      <c r="AU3" s="37"/>
-      <c r="AV3" s="37"/>
-      <c r="AW3" s="38"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="47"/>
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="48"/>
+      <c r="AO3" s="48"/>
+      <c r="AP3" s="48"/>
+      <c r="AQ3" s="48"/>
+      <c r="AR3" s="48"/>
+      <c r="AS3" s="48"/>
+      <c r="AT3" s="48"/>
+      <c r="AU3" s="48"/>
+      <c r="AV3" s="48"/>
+      <c r="AW3" s="49"/>
     </row>
     <row r="4" spans="2:49" ht="13.5" customHeight="1" thickTop="1"/>
     <row r="5" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41" t="s">
+      <c r="C5" s="51"/>
+      <c r="D5" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="41" t="s">
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="41" t="s">
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="42"/>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="42"/>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="42"/>
-      <c r="AK5" s="42"/>
-      <c r="AL5" s="42"/>
-      <c r="AM5" s="42"/>
-      <c r="AN5" s="42"/>
-      <c r="AO5" s="42"/>
-      <c r="AP5" s="42"/>
-      <c r="AQ5" s="42"/>
-      <c r="AR5" s="42"/>
-      <c r="AS5" s="42"/>
-      <c r="AT5" s="42"/>
-      <c r="AU5" s="42"/>
-      <c r="AV5" s="42"/>
-      <c r="AW5" s="43"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="53"/>
+      <c r="AD5" s="53"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="53"/>
+      <c r="AJ5" s="53"/>
+      <c r="AK5" s="53"/>
+      <c r="AL5" s="53"/>
+      <c r="AM5" s="53"/>
+      <c r="AN5" s="53"/>
+      <c r="AO5" s="53"/>
+      <c r="AP5" s="53"/>
+      <c r="AQ5" s="53"/>
+      <c r="AR5" s="53"/>
+      <c r="AS5" s="53"/>
+      <c r="AT5" s="53"/>
+      <c r="AU5" s="53"/>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="54"/>
     </row>
     <row r="6" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B6" s="27">
+      <c r="B6" s="38">
         <f>MAX($B$5:B5)+1</f>
         <v>1</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29" t="s">
+      <c r="C6" s="39"/>
+      <c r="D6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="17" t="s">
         <v>48</v>
       </c>
@@ -3286,17 +3303,17 @@
       <c r="AW6" s="3"/>
     </row>
     <row r="7" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B7" s="44">
+      <c r="B7" s="27">
         <f>MAX($B$5:B6)+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31"/>
       <c r="H7" s="15" t="s">
         <v>12</v>
       </c>
@@ -3345,17 +3362,17 @@
       <c r="AW7" s="6"/>
     </row>
     <row r="8" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B8" s="44">
+      <c r="B8" s="27">
         <f>MAX($B$5:B7)+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="15" t="s">
         <v>30</v>
       </c>
@@ -3404,17 +3421,17 @@
       <c r="AW8" s="6"/>
     </row>
     <row r="9" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B9" s="44">
+      <c r="B9" s="27">
         <f>MAX($B$5:B8)+1</f>
         <v>4</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46" t="s">
+      <c r="C9" s="28"/>
+      <c r="D9" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="13" t="s">
         <v>46</v>
       </c>
@@ -3463,17 +3480,17 @@
       <c r="AW9" s="6"/>
     </row>
     <row r="10" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B10" s="44">
+      <c r="B10" s="27">
         <f>MAX($B$5:B9)+1</f>
         <v>5</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46" t="s">
+      <c r="C10" s="28"/>
+      <c r="D10" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
       <c r="H10" s="15" t="s">
         <v>41</v>
       </c>
@@ -3522,17 +3539,17 @@
       <c r="AW10" s="6"/>
     </row>
     <row r="11" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B11" s="44">
+      <c r="B11" s="27">
         <f>MAX($B$5:B10)+1</f>
         <v>6</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46" t="s">
+      <c r="C11" s="28"/>
+      <c r="D11" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
       <c r="H11" s="13" t="s">
         <v>40</v>
       </c>
@@ -3581,17 +3598,17 @@
       <c r="AW11" s="6"/>
     </row>
     <row r="12" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B12" s="44">
+      <c r="B12" s="27">
         <f>MAX($B$5:B11)+1</f>
         <v>7</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46" t="s">
+      <c r="C12" s="28"/>
+      <c r="D12" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="15" t="s">
         <v>39</v>
       </c>
@@ -3640,17 +3657,17 @@
       <c r="AW12" s="6"/>
     </row>
     <row r="13" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B13" s="44">
+      <c r="B13" s="27">
         <f>MAX($B$5:B12)+1</f>
         <v>8</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46" t="s">
+      <c r="C13" s="28"/>
+      <c r="D13" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
       <c r="H13" s="15" t="s">
         <v>38</v>
       </c>
@@ -3699,15 +3716,15 @@
       <c r="AW13" s="6"/>
     </row>
     <row r="14" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B14" s="44">
+      <c r="B14" s="27">
         <f>MAX($B$5:B13)+1</f>
         <v>9</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -3751,15 +3768,15 @@
       <c r="AW14" s="6"/>
     </row>
     <row r="15" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B15" s="44">
+      <c r="B15" s="27">
         <f>MAX($B$5:B14)+1</f>
         <v>10</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="4"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -3804,15 +3821,15 @@
       <c r="AW15" s="6"/>
     </row>
     <row r="16" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B16" s="44">
+      <c r="B16" s="27">
         <f>MAX($B$5:B15)+1</f>
         <v>11</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="4"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -3857,15 +3874,15 @@
       <c r="AW16" s="6"/>
     </row>
     <row r="17" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B17" s="44">
+      <c r="B17" s="27">
         <f>MAX($B$5:B16)+1</f>
         <v>12</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="4"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -3910,15 +3927,15 @@
       <c r="AW17" s="6"/>
     </row>
     <row r="18" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B18" s="44">
+      <c r="B18" s="27">
         <f>MAX($B$5:B17)+1</f>
         <v>13</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="4"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -3963,15 +3980,15 @@
       <c r="AW18" s="6"/>
     </row>
     <row r="19" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B19" s="44">
+      <c r="B19" s="27">
         <f>MAX($B$5:B18)+1</f>
         <v>14</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31"/>
       <c r="H19" s="4"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -4016,15 +4033,15 @@
       <c r="AW19" s="6"/>
     </row>
     <row r="20" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B20" s="44">
+      <c r="B20" s="27">
         <f>MAX($B$5:B19)+1</f>
         <v>15</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="4"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -4069,15 +4086,15 @@
       <c r="AW20" s="6"/>
     </row>
     <row r="21" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B21" s="44">
+      <c r="B21" s="27">
         <f>MAX($B$5:B20)+1</f>
         <v>16</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="4"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -4122,15 +4139,15 @@
       <c r="AW21" s="6"/>
     </row>
     <row r="22" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B22" s="44">
+      <c r="B22" s="27">
         <f>MAX($B$5:B21)+1</f>
         <v>17</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="31"/>
       <c r="H22" s="4"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -4175,15 +4192,15 @@
       <c r="AW22" s="6"/>
     </row>
     <row r="23" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B23" s="44">
+      <c r="B23" s="27">
         <f>MAX($B$5:B22)+1</f>
         <v>18</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="48"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="31"/>
       <c r="H23" s="4"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -4228,15 +4245,15 @@
       <c r="AW23" s="6"/>
     </row>
     <row r="24" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B24" s="44">
+      <c r="B24" s="27">
         <f>MAX($B$5:B23)+1</f>
         <v>19</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="48"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="31"/>
       <c r="H24" s="4"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -4281,15 +4298,15 @@
       <c r="AW24" s="6"/>
     </row>
     <row r="25" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B25" s="44">
+      <c r="B25" s="27">
         <f>MAX($B$5:B24)+1</f>
         <v>20</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="48"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="31"/>
       <c r="H25" s="4"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -4334,15 +4351,15 @@
       <c r="AW25" s="6"/>
     </row>
     <row r="26" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B26" s="44">
+      <c r="B26" s="27">
         <f>MAX($B$5:B25)+1</f>
         <v>21</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="48"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="31"/>
       <c r="H26" s="4"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -4387,15 +4404,15 @@
       <c r="AW26" s="6"/>
     </row>
     <row r="27" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B27" s="44">
+      <c r="B27" s="27">
         <f>MAX($B$5:B26)+1</f>
         <v>22</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="48"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="31"/>
       <c r="H27" s="4"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -4440,15 +4457,15 @@
       <c r="AW27" s="6"/>
     </row>
     <row r="28" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B28" s="44">
+      <c r="B28" s="27">
         <f>MAX($B$5:B27)+1</f>
         <v>23</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="48"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="31"/>
       <c r="H28" s="4"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -4493,15 +4510,15 @@
       <c r="AW28" s="6"/>
     </row>
     <row r="29" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B29" s="44">
+      <c r="B29" s="27">
         <f>MAX($B$5:B28)+1</f>
         <v>24</v>
       </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="48"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="31"/>
       <c r="H29" s="4"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -4546,15 +4563,15 @@
       <c r="AW29" s="6"/>
     </row>
     <row r="30" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B30" s="44">
+      <c r="B30" s="27">
         <f>MAX($B$5:B29)+1</f>
         <v>25</v>
       </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="48"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="31"/>
       <c r="H30" s="4"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -4599,15 +4616,15 @@
       <c r="AW30" s="6"/>
     </row>
     <row r="31" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B31" s="44">
+      <c r="B31" s="27">
         <f>MAX($B$5:B30)+1</f>
         <v>26</v>
       </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="48"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="31"/>
       <c r="H31" s="4"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
@@ -4652,15 +4669,15 @@
       <c r="AW31" s="6"/>
     </row>
     <row r="32" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B32" s="44">
+      <c r="B32" s="27">
         <f>MAX($B$5:B31)+1</f>
         <v>27</v>
       </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="48"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="31"/>
       <c r="H32" s="4"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -4705,15 +4722,15 @@
       <c r="AW32" s="6"/>
     </row>
     <row r="33" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B33" s="44">
+      <c r="B33" s="27">
         <f>MAX($B$5:B32)+1</f>
         <v>28</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="48"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="31"/>
       <c r="H33" s="4"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -4758,15 +4775,15 @@
       <c r="AW33" s="6"/>
     </row>
     <row r="34" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B34" s="44">
+      <c r="B34" s="27">
         <f>MAX($B$5:B33)+1</f>
         <v>29</v>
       </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="48"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="31"/>
       <c r="H34" s="4"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -4811,15 +4828,15 @@
       <c r="AW34" s="6"/>
     </row>
     <row r="35" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B35" s="44">
+      <c r="B35" s="27">
         <f>MAX($B$5:B34)+1</f>
         <v>30</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="48"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="31"/>
       <c r="H35" s="4"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -4864,15 +4881,15 @@
       <c r="AW35" s="6"/>
     </row>
     <row r="36" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B36" s="44">
+      <c r="B36" s="27">
         <f>MAX($B$5:B35)+1</f>
         <v>31</v>
       </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="48"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="31"/>
       <c r="H36" s="4"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -4917,15 +4934,15 @@
       <c r="AW36" s="6"/>
     </row>
     <row r="37" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B37" s="44">
+      <c r="B37" s="27">
         <f>MAX($B$5:B36)+1</f>
         <v>32</v>
       </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="48"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="31"/>
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -4970,15 +4987,15 @@
       <c r="AW37" s="6"/>
     </row>
     <row r="38" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B38" s="44">
+      <c r="B38" s="27">
         <f>MAX($B$5:B37)+1</f>
         <v>33</v>
       </c>
-      <c r="C38" s="45"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="48"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="31"/>
       <c r="H38" s="4"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -5023,15 +5040,15 @@
       <c r="AW38" s="6"/>
     </row>
     <row r="39" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B39" s="44">
+      <c r="B39" s="27">
         <f>MAX($B$5:B38)+1</f>
         <v>34</v>
       </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="48"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="31"/>
       <c r="H39" s="4"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
@@ -5076,15 +5093,15 @@
       <c r="AW39" s="6"/>
     </row>
     <row r="40" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B40" s="44">
+      <c r="B40" s="27">
         <f>MAX($B$5:B39)+1</f>
         <v>35</v>
       </c>
-      <c r="C40" s="45"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="48"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="31"/>
       <c r="H40" s="4"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -5129,15 +5146,15 @@
       <c r="AW40" s="6"/>
     </row>
     <row r="41" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B41" s="44">
+      <c r="B41" s="27">
         <f>MAX($B$5:B40)+1</f>
         <v>36</v>
       </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="48"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="31"/>
       <c r="H41" s="4"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
@@ -5182,15 +5199,15 @@
       <c r="AW41" s="6"/>
     </row>
     <row r="42" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B42" s="50">
+      <c r="B42" s="32">
         <f>MAX($B$5:B41)+1</f>
         <v>37</v>
       </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="54"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="36"/>
       <c r="H42" s="7"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
@@ -5236,78 +5253,6 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:G9"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="B2:AW3"/>
@@ -5315,6 +5260,78 @@
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="H5:Q5"/>
     <mergeCell ref="R5:AW5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.71" right="0.39" top="0.59" bottom="0.59" header="0.39" footer="0.39"/>
@@ -5329,9 +5346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE3D774-D3ED-43B6-87BD-471B968BB2ED}">
   <dimension ref="A1:EL121"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A45" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="15.75"/>
   <cols>
@@ -5344,232 +5359,232 @@
   <sheetData>
     <row r="1" spans="2:142" s="10" customFormat="1" ht="12.75" thickBot="1"/>
     <row r="2" spans="2:142" s="10" customFormat="1" ht="12.75" thickTop="1">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="62"/>
-      <c r="AJ2" s="62"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="67" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="67"/>
-      <c r="AO2" s="67"/>
-      <c r="AP2" s="67"/>
-      <c r="AQ2" s="67"/>
-      <c r="AR2" s="68">
-        <v>43999</v>
-      </c>
-      <c r="AS2" s="68"/>
-      <c r="AT2" s="68"/>
-      <c r="AU2" s="68"/>
-      <c r="AV2" s="68"/>
-      <c r="AW2" s="68"/>
-      <c r="AX2" s="68"/>
-      <c r="AY2" s="68"/>
-      <c r="AZ2" s="68"/>
-      <c r="BA2" s="69"/>
-      <c r="CJ2" s="70"/>
-      <c r="CK2" s="70"/>
-      <c r="CL2" s="70"/>
-      <c r="CM2" s="70"/>
-      <c r="CN2" s="70"/>
-      <c r="CO2" s="70"/>
-      <c r="CP2" s="70"/>
-      <c r="CQ2" s="70"/>
-      <c r="CR2" s="70"/>
-      <c r="CS2" s="70"/>
-      <c r="CT2" s="70"/>
-      <c r="CU2" s="70"/>
-      <c r="CV2" s="70"/>
-      <c r="CW2" s="70"/>
-      <c r="CX2" s="70"/>
-      <c r="CY2" s="70"/>
-      <c r="CZ2" s="70"/>
-      <c r="DA2" s="70"/>
-      <c r="DB2" s="70"/>
-      <c r="DC2" s="70"/>
-      <c r="DD2" s="70"/>
-      <c r="DE2" s="70"/>
-      <c r="DF2" s="70"/>
-      <c r="DG2" s="70"/>
-      <c r="DH2" s="70"/>
-      <c r="DI2" s="70"/>
-      <c r="DJ2" s="70"/>
-      <c r="DK2" s="70"/>
-      <c r="DL2" s="70"/>
-      <c r="DM2" s="70"/>
-      <c r="DN2" s="70"/>
-      <c r="DO2" s="70"/>
-      <c r="DP2" s="70"/>
-      <c r="DQ2" s="70"/>
-      <c r="DR2" s="70"/>
-      <c r="DS2" s="70"/>
-      <c r="DT2" s="70"/>
-      <c r="DU2" s="70"/>
-      <c r="DV2" s="70"/>
-      <c r="DW2" s="59"/>
-      <c r="DX2" s="59"/>
-      <c r="DY2" s="59"/>
-      <c r="DZ2" s="59"/>
-      <c r="EA2" s="59"/>
-      <c r="EB2" s="59"/>
-      <c r="EC2" s="55"/>
-      <c r="ED2" s="55"/>
-      <c r="EE2" s="55"/>
-      <c r="EF2" s="55"/>
-      <c r="EG2" s="55"/>
-      <c r="EH2" s="55"/>
-      <c r="EI2" s="55"/>
-      <c r="EJ2" s="55"/>
-      <c r="EK2" s="55"/>
-      <c r="EL2" s="55"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="64"/>
+      <c r="AR2" s="65">
+        <v>44000</v>
+      </c>
+      <c r="AS2" s="65"/>
+      <c r="AT2" s="65"/>
+      <c r="AU2" s="65"/>
+      <c r="AV2" s="65"/>
+      <c r="AW2" s="65"/>
+      <c r="AX2" s="65"/>
+      <c r="AY2" s="65"/>
+      <c r="AZ2" s="65"/>
+      <c r="BA2" s="66"/>
+      <c r="CJ2" s="67"/>
+      <c r="CK2" s="67"/>
+      <c r="CL2" s="67"/>
+      <c r="CM2" s="67"/>
+      <c r="CN2" s="67"/>
+      <c r="CO2" s="67"/>
+      <c r="CP2" s="67"/>
+      <c r="CQ2" s="67"/>
+      <c r="CR2" s="67"/>
+      <c r="CS2" s="67"/>
+      <c r="CT2" s="67"/>
+      <c r="CU2" s="67"/>
+      <c r="CV2" s="67"/>
+      <c r="CW2" s="67"/>
+      <c r="CX2" s="67"/>
+      <c r="CY2" s="67"/>
+      <c r="CZ2" s="67"/>
+      <c r="DA2" s="67"/>
+      <c r="DB2" s="67"/>
+      <c r="DC2" s="67"/>
+      <c r="DD2" s="67"/>
+      <c r="DE2" s="67"/>
+      <c r="DF2" s="67"/>
+      <c r="DG2" s="67"/>
+      <c r="DH2" s="67"/>
+      <c r="DI2" s="67"/>
+      <c r="DJ2" s="67"/>
+      <c r="DK2" s="67"/>
+      <c r="DL2" s="67"/>
+      <c r="DM2" s="67"/>
+      <c r="DN2" s="67"/>
+      <c r="DO2" s="67"/>
+      <c r="DP2" s="67"/>
+      <c r="DQ2" s="67"/>
+      <c r="DR2" s="67"/>
+      <c r="DS2" s="67"/>
+      <c r="DT2" s="67"/>
+      <c r="DU2" s="67"/>
+      <c r="DV2" s="67"/>
+      <c r="DW2" s="68"/>
+      <c r="DX2" s="68"/>
+      <c r="DY2" s="68"/>
+      <c r="DZ2" s="68"/>
+      <c r="EA2" s="68"/>
+      <c r="EB2" s="68"/>
+      <c r="EC2" s="69"/>
+      <c r="ED2" s="69"/>
+      <c r="EE2" s="69"/>
+      <c r="EF2" s="69"/>
+      <c r="EG2" s="69"/>
+      <c r="EH2" s="69"/>
+      <c r="EI2" s="69"/>
+      <c r="EJ2" s="69"/>
+      <c r="EK2" s="69"/>
+      <c r="EL2" s="69"/>
     </row>
     <row r="3" spans="2:142" s="10" customFormat="1" ht="12.75" thickBot="1">
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="56" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="62"/>
+      <c r="AH3" s="62"/>
+      <c r="AI3" s="62"/>
+      <c r="AJ3" s="62"/>
+      <c r="AK3" s="63"/>
+      <c r="AL3" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="AM3" s="56"/>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="56"/>
-      <c r="AP3" s="56"/>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="57" t="s">
+      <c r="AM3" s="70"/>
+      <c r="AN3" s="70"/>
+      <c r="AO3" s="70"/>
+      <c r="AP3" s="70"/>
+      <c r="AQ3" s="70"/>
+      <c r="AR3" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="AS3" s="57"/>
-      <c r="AT3" s="57"/>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="57"/>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="57"/>
-      <c r="BA3" s="58"/>
-      <c r="CJ3" s="70"/>
-      <c r="CK3" s="70"/>
-      <c r="CL3" s="70"/>
-      <c r="CM3" s="70"/>
-      <c r="CN3" s="70"/>
-      <c r="CO3" s="70"/>
-      <c r="CP3" s="70"/>
-      <c r="CQ3" s="70"/>
-      <c r="CR3" s="70"/>
-      <c r="CS3" s="70"/>
-      <c r="CT3" s="70"/>
-      <c r="CU3" s="70"/>
-      <c r="CV3" s="70"/>
-      <c r="CW3" s="70"/>
-      <c r="CX3" s="70"/>
-      <c r="CY3" s="70"/>
-      <c r="CZ3" s="70"/>
-      <c r="DA3" s="70"/>
-      <c r="DB3" s="70"/>
-      <c r="DC3" s="70"/>
-      <c r="DD3" s="70"/>
-      <c r="DE3" s="70"/>
-      <c r="DF3" s="70"/>
-      <c r="DG3" s="70"/>
-      <c r="DH3" s="70"/>
-      <c r="DI3" s="70"/>
-      <c r="DJ3" s="70"/>
-      <c r="DK3" s="70"/>
-      <c r="DL3" s="70"/>
-      <c r="DM3" s="70"/>
-      <c r="DN3" s="70"/>
-      <c r="DO3" s="70"/>
-      <c r="DP3" s="70"/>
-      <c r="DQ3" s="70"/>
-      <c r="DR3" s="70"/>
-      <c r="DS3" s="70"/>
-      <c r="DT3" s="70"/>
-      <c r="DU3" s="70"/>
-      <c r="DV3" s="70"/>
-      <c r="DW3" s="59"/>
-      <c r="DX3" s="59"/>
-      <c r="DY3" s="59"/>
-      <c r="DZ3" s="59"/>
-      <c r="EA3" s="59"/>
-      <c r="EB3" s="59"/>
-      <c r="EC3" s="60"/>
-      <c r="ED3" s="60"/>
-      <c r="EE3" s="60"/>
-      <c r="EF3" s="60"/>
-      <c r="EG3" s="60"/>
-      <c r="EH3" s="60"/>
-      <c r="EI3" s="60"/>
-      <c r="EJ3" s="60"/>
-      <c r="EK3" s="60"/>
-      <c r="EL3" s="60"/>
+      <c r="AS3" s="71"/>
+      <c r="AT3" s="71"/>
+      <c r="AU3" s="71"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="71"/>
+      <c r="AX3" s="71"/>
+      <c r="AY3" s="71"/>
+      <c r="AZ3" s="71"/>
+      <c r="BA3" s="72"/>
+      <c r="CJ3" s="67"/>
+      <c r="CK3" s="67"/>
+      <c r="CL3" s="67"/>
+      <c r="CM3" s="67"/>
+      <c r="CN3" s="67"/>
+      <c r="CO3" s="67"/>
+      <c r="CP3" s="67"/>
+      <c r="CQ3" s="67"/>
+      <c r="CR3" s="67"/>
+      <c r="CS3" s="67"/>
+      <c r="CT3" s="67"/>
+      <c r="CU3" s="67"/>
+      <c r="CV3" s="67"/>
+      <c r="CW3" s="67"/>
+      <c r="CX3" s="67"/>
+      <c r="CY3" s="67"/>
+      <c r="CZ3" s="67"/>
+      <c r="DA3" s="67"/>
+      <c r="DB3" s="67"/>
+      <c r="DC3" s="67"/>
+      <c r="DD3" s="67"/>
+      <c r="DE3" s="67"/>
+      <c r="DF3" s="67"/>
+      <c r="DG3" s="67"/>
+      <c r="DH3" s="67"/>
+      <c r="DI3" s="67"/>
+      <c r="DJ3" s="67"/>
+      <c r="DK3" s="67"/>
+      <c r="DL3" s="67"/>
+      <c r="DM3" s="67"/>
+      <c r="DN3" s="67"/>
+      <c r="DO3" s="67"/>
+      <c r="DP3" s="67"/>
+      <c r="DQ3" s="67"/>
+      <c r="DR3" s="67"/>
+      <c r="DS3" s="67"/>
+      <c r="DT3" s="67"/>
+      <c r="DU3" s="67"/>
+      <c r="DV3" s="67"/>
+      <c r="DW3" s="68"/>
+      <c r="DX3" s="68"/>
+      <c r="DY3" s="68"/>
+      <c r="DZ3" s="68"/>
+      <c r="EA3" s="68"/>
+      <c r="EB3" s="68"/>
+      <c r="EC3" s="73"/>
+      <c r="ED3" s="73"/>
+      <c r="EE3" s="73"/>
+      <c r="EF3" s="73"/>
+      <c r="EG3" s="73"/>
+      <c r="EH3" s="73"/>
+      <c r="EI3" s="73"/>
+      <c r="EJ3" s="73"/>
+      <c r="EK3" s="73"/>
+      <c r="EL3" s="73"/>
     </row>
     <row r="4" spans="2:142" ht="16.5" thickTop="1">
       <c r="B4" s="20"/>
@@ -6650,15 +6665,15 @@
     <row r="25" spans="2:142">
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
-      <c r="K25" s="14" t="s">
+      <c r="J25" s="14" t="s">
         <v>90</v>
       </c>
+      <c r="O25" s="19"/>
       <c r="P25" s="19"/>
       <c r="Q25" s="19"/>
       <c r="R25" s="19"/>
       <c r="S25" s="19"/>
       <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
       <c r="V25" s="19"/>
       <c r="W25" s="19"/>
       <c r="X25" s="19"/>
@@ -6688,74 +6703,69 @@
       <c r="AY25" s="19"/>
       <c r="AZ25" s="19"/>
       <c r="BA25" s="19"/>
-      <c r="CJ25" s="71"/>
-      <c r="CK25" s="71"/>
-      <c r="CL25" s="71"/>
-      <c r="CM25" s="71"/>
-      <c r="CN25" s="72"/>
-      <c r="CO25" s="72"/>
-      <c r="CP25" s="72"/>
-      <c r="CQ25" s="72"/>
-      <c r="CR25" s="71"/>
-      <c r="CS25" s="71"/>
-      <c r="CT25" s="71"/>
-      <c r="CU25" s="71"/>
-      <c r="CV25" s="73"/>
-      <c r="CW25" s="73"/>
-      <c r="CX25" s="73"/>
-      <c r="CY25" s="73"/>
-      <c r="CZ25" s="73"/>
-      <c r="DA25" s="73"/>
-      <c r="DB25" s="73"/>
-      <c r="DC25" s="73"/>
-      <c r="DD25" s="73"/>
-      <c r="DE25" s="73"/>
-      <c r="DF25" s="73"/>
-      <c r="DG25" s="73"/>
-      <c r="DH25" s="73"/>
-      <c r="DI25" s="73"/>
-      <c r="DJ25" s="73"/>
-      <c r="DK25" s="73"/>
-      <c r="DL25" s="73"/>
-      <c r="DM25" s="73"/>
-      <c r="DN25" s="73"/>
-      <c r="DO25" s="73"/>
-      <c r="DP25" s="73"/>
-      <c r="DQ25" s="73"/>
-      <c r="DR25" s="73"/>
-      <c r="DS25" s="73"/>
-      <c r="DT25" s="73"/>
-      <c r="DU25" s="73"/>
-      <c r="DV25" s="73"/>
-      <c r="DW25" s="73"/>
-      <c r="DX25" s="73"/>
-      <c r="DY25" s="73"/>
-      <c r="DZ25" s="73"/>
-      <c r="EA25" s="73"/>
-      <c r="EB25" s="73"/>
-      <c r="EC25" s="73"/>
-      <c r="ED25" s="73"/>
-      <c r="EE25" s="73"/>
-      <c r="EF25" s="73"/>
-      <c r="EG25" s="73"/>
-      <c r="EH25" s="73"/>
-      <c r="EI25" s="73"/>
-      <c r="EJ25" s="73"/>
-      <c r="EK25" s="73"/>
-      <c r="EL25" s="73"/>
+      <c r="CJ25" s="55"/>
+      <c r="CK25" s="55"/>
+      <c r="CL25" s="55"/>
+      <c r="CM25" s="55"/>
+      <c r="CN25" s="56"/>
+      <c r="CO25" s="56"/>
+      <c r="CP25" s="56"/>
+      <c r="CQ25" s="56"/>
+      <c r="CR25" s="55"/>
+      <c r="CS25" s="55"/>
+      <c r="CT25" s="55"/>
+      <c r="CU25" s="55"/>
+      <c r="CV25" s="57"/>
+      <c r="CW25" s="57"/>
+      <c r="CX25" s="57"/>
+      <c r="CY25" s="57"/>
+      <c r="CZ25" s="57"/>
+      <c r="DA25" s="57"/>
+      <c r="DB25" s="57"/>
+      <c r="DC25" s="57"/>
+      <c r="DD25" s="57"/>
+      <c r="DE25" s="57"/>
+      <c r="DF25" s="57"/>
+      <c r="DG25" s="57"/>
+      <c r="DH25" s="57"/>
+      <c r="DI25" s="57"/>
+      <c r="DJ25" s="57"/>
+      <c r="DK25" s="57"/>
+      <c r="DL25" s="57"/>
+      <c r="DM25" s="57"/>
+      <c r="DN25" s="57"/>
+      <c r="DO25" s="57"/>
+      <c r="DP25" s="57"/>
+      <c r="DQ25" s="57"/>
+      <c r="DR25" s="57"/>
+      <c r="DS25" s="57"/>
+      <c r="DT25" s="57"/>
+      <c r="DU25" s="57"/>
+      <c r="DV25" s="57"/>
+      <c r="DW25" s="57"/>
+      <c r="DX25" s="57"/>
+      <c r="DY25" s="57"/>
+      <c r="DZ25" s="57"/>
+      <c r="EA25" s="57"/>
+      <c r="EB25" s="57"/>
+      <c r="EC25" s="57"/>
+      <c r="ED25" s="57"/>
+      <c r="EE25" s="57"/>
+      <c r="EF25" s="57"/>
+      <c r="EG25" s="57"/>
+      <c r="EH25" s="57"/>
+      <c r="EI25" s="57"/>
+      <c r="EJ25" s="57"/>
+      <c r="EK25" s="57"/>
+      <c r="EL25" s="57"/>
     </row>
     <row r="26" spans="2:142">
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
-      <c r="L26" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
       <c r="R26" s="19"/>
       <c r="S26" s="19"/>
       <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
       <c r="V26" s="19"/>
       <c r="W26" s="19"/>
       <c r="X26" s="19"/>
@@ -6789,15 +6799,13 @@
     <row r="27" spans="2:142">
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
-      <c r="M27" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="P27" s="19"/>
+      <c r="D27" s="14" t="s">
+        <v>161</v>
+      </c>
       <c r="Q27" s="19"/>
       <c r="R27" s="19"/>
       <c r="S27" s="19"/>
       <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
       <c r="V27" s="19"/>
       <c r="W27" s="19"/>
       <c r="X27" s="19"/>
@@ -6834,16 +6842,13 @@
     <row r="28" spans="2:142">
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="N28" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="P28" s="19"/>
+      <c r="E28" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="Q28" s="19"/>
       <c r="R28" s="19"/>
       <c r="S28" s="19"/>
       <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
       <c r="V28" s="19"/>
       <c r="W28" s="19"/>
       <c r="X28" s="19"/>
@@ -6880,16 +6885,15 @@
     <row r="29" spans="2:142">
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="O29" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="P29" s="19"/>
+      <c r="F29" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
       <c r="Q29" s="19"/>
       <c r="R29" s="19"/>
       <c r="S29" s="19"/>
       <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
       <c r="V29" s="19"/>
       <c r="W29" s="19"/>
       <c r="X29" s="19"/>
@@ -6926,20 +6930,15 @@
     <row r="30" spans="2:142">
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
+      <c r="G30" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J30" s="19"/>
       <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="P30" s="19"/>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
       <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
       <c r="X30" s="19"/>
@@ -6976,20 +6975,16 @@
     <row r="31" spans="2:142">
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
+      <c r="H31" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="J31" s="19"/>
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="P31" s="14" t="s">
-        <v>95</v>
-      </c>
       <c r="Q31" s="19"/>
       <c r="R31" s="19"/>
       <c r="S31" s="19"/>
       <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
       <c r="V31" s="19"/>
       <c r="W31" s="19"/>
       <c r="X31" s="19"/>
@@ -7026,16 +7021,16 @@
     <row r="32" spans="2:142">
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="Q32" s="19" t="s">
-        <v>96</v>
-      </c>
+      <c r="I32" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="Q32" s="19"/>
       <c r="R32" s="19"/>
       <c r="S32" s="19"/>
       <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
       <c r="V32" s="19"/>
       <c r="W32" s="19"/>
       <c r="X32" s="19"/>
@@ -7072,15 +7067,18 @@
     <row r="33" spans="2:142">
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="O33" s="19" t="s">
-        <v>83</v>
-      </c>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
       <c r="Q33" s="19"/>
       <c r="R33" s="19"/>
       <c r="S33" s="19"/>
       <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
       <c r="V33" s="19"/>
       <c r="W33" s="19"/>
       <c r="X33" s="19"/>
@@ -7117,7 +7115,13 @@
     <row r="34" spans="2:142">
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="J34" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="K34" s="19"/>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
@@ -7159,11 +7163,10 @@
     <row r="35" spans="2:142">
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="K35" s="19" t="s">
+        <v>95</v>
+      </c>
       <c r="O35" s="19"/>
       <c r="P35" s="19"/>
       <c r="Q35" s="19"/>
@@ -7207,6 +7210,12 @@
     <row r="36" spans="2:142">
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
+      <c r="I36" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="K36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
       <c r="Q36" s="19"/>
       <c r="R36" s="19"/>
       <c r="S36" s="19"/>
@@ -7285,61 +7294,61 @@
       <c r="AY37" s="19"/>
       <c r="AZ37" s="19"/>
       <c r="BA37" s="19"/>
-      <c r="CJ37" s="71"/>
-      <c r="CK37" s="71"/>
-      <c r="CL37" s="71"/>
-      <c r="CM37" s="71"/>
-      <c r="CN37" s="72"/>
-      <c r="CO37" s="72"/>
-      <c r="CP37" s="72"/>
-      <c r="CQ37" s="72"/>
-      <c r="CR37" s="71"/>
-      <c r="CS37" s="71"/>
-      <c r="CT37" s="71"/>
-      <c r="CU37" s="71"/>
-      <c r="CV37" s="73"/>
-      <c r="CW37" s="73"/>
-      <c r="CX37" s="73"/>
-      <c r="CY37" s="73"/>
-      <c r="CZ37" s="73"/>
-      <c r="DA37" s="73"/>
-      <c r="DB37" s="73"/>
-      <c r="DC37" s="73"/>
-      <c r="DD37" s="73"/>
-      <c r="DE37" s="73"/>
-      <c r="DF37" s="73"/>
-      <c r="DG37" s="73"/>
-      <c r="DH37" s="73"/>
-      <c r="DI37" s="73"/>
-      <c r="DJ37" s="73"/>
-      <c r="DK37" s="73"/>
-      <c r="DL37" s="73"/>
-      <c r="DM37" s="73"/>
-      <c r="DN37" s="73"/>
-      <c r="DO37" s="73"/>
-      <c r="DP37" s="73"/>
-      <c r="DQ37" s="73"/>
-      <c r="DR37" s="73"/>
-      <c r="DS37" s="73"/>
-      <c r="DT37" s="73"/>
-      <c r="DU37" s="73"/>
-      <c r="DV37" s="73"/>
-      <c r="DW37" s="73"/>
-      <c r="DX37" s="73"/>
-      <c r="DY37" s="73"/>
-      <c r="DZ37" s="73"/>
-      <c r="EA37" s="73"/>
-      <c r="EB37" s="73"/>
-      <c r="EC37" s="73"/>
-      <c r="ED37" s="73"/>
-      <c r="EE37" s="73"/>
-      <c r="EF37" s="73"/>
-      <c r="EG37" s="73"/>
-      <c r="EH37" s="73"/>
-      <c r="EI37" s="73"/>
-      <c r="EJ37" s="73"/>
-      <c r="EK37" s="73"/>
-      <c r="EL37" s="73"/>
+      <c r="CJ37" s="55"/>
+      <c r="CK37" s="55"/>
+      <c r="CL37" s="55"/>
+      <c r="CM37" s="55"/>
+      <c r="CN37" s="56"/>
+      <c r="CO37" s="56"/>
+      <c r="CP37" s="56"/>
+      <c r="CQ37" s="56"/>
+      <c r="CR37" s="55"/>
+      <c r="CS37" s="55"/>
+      <c r="CT37" s="55"/>
+      <c r="CU37" s="55"/>
+      <c r="CV37" s="57"/>
+      <c r="CW37" s="57"/>
+      <c r="CX37" s="57"/>
+      <c r="CY37" s="57"/>
+      <c r="CZ37" s="57"/>
+      <c r="DA37" s="57"/>
+      <c r="DB37" s="57"/>
+      <c r="DC37" s="57"/>
+      <c r="DD37" s="57"/>
+      <c r="DE37" s="57"/>
+      <c r="DF37" s="57"/>
+      <c r="DG37" s="57"/>
+      <c r="DH37" s="57"/>
+      <c r="DI37" s="57"/>
+      <c r="DJ37" s="57"/>
+      <c r="DK37" s="57"/>
+      <c r="DL37" s="57"/>
+      <c r="DM37" s="57"/>
+      <c r="DN37" s="57"/>
+      <c r="DO37" s="57"/>
+      <c r="DP37" s="57"/>
+      <c r="DQ37" s="57"/>
+      <c r="DR37" s="57"/>
+      <c r="DS37" s="57"/>
+      <c r="DT37" s="57"/>
+      <c r="DU37" s="57"/>
+      <c r="DV37" s="57"/>
+      <c r="DW37" s="57"/>
+      <c r="DX37" s="57"/>
+      <c r="DY37" s="57"/>
+      <c r="DZ37" s="57"/>
+      <c r="EA37" s="57"/>
+      <c r="EB37" s="57"/>
+      <c r="EC37" s="57"/>
+      <c r="ED37" s="57"/>
+      <c r="EE37" s="57"/>
+      <c r="EF37" s="57"/>
+      <c r="EG37" s="57"/>
+      <c r="EH37" s="57"/>
+      <c r="EI37" s="57"/>
+      <c r="EJ37" s="57"/>
+      <c r="EK37" s="57"/>
+      <c r="EL37" s="57"/>
     </row>
     <row r="38" spans="2:142">
       <c r="B38" s="19"/>
@@ -7794,7 +7803,7 @@
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K48" s="19"/>
       <c r="L48" s="19"/>
@@ -7845,7 +7854,7 @@
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H49" s="19"/>
       <c r="J49" s="19"/>
@@ -7898,7 +7907,7 @@
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
       <c r="F50" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H50" s="19"/>
       <c r="J50" s="19"/>
@@ -8052,7 +8061,7 @@
       <c r="C53" s="19"/>
       <c r="D53" s="19"/>
       <c r="F53" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H53" s="19"/>
       <c r="J53" s="19"/>
@@ -8208,7 +8217,7 @@
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
       <c r="F56" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G56" s="19"/>
       <c r="J56" s="19"/>
@@ -8255,68 +8264,68 @@
       <c r="AY56" s="19"/>
       <c r="AZ56" s="19"/>
       <c r="BA56" s="19"/>
-      <c r="CJ56" s="71"/>
-      <c r="CK56" s="71"/>
-      <c r="CL56" s="71"/>
-      <c r="CM56" s="71"/>
-      <c r="CN56" s="72"/>
-      <c r="CO56" s="72"/>
-      <c r="CP56" s="72"/>
-      <c r="CQ56" s="72"/>
-      <c r="CR56" s="71"/>
-      <c r="CS56" s="71"/>
-      <c r="CT56" s="71"/>
-      <c r="CU56" s="71"/>
-      <c r="CV56" s="73"/>
-      <c r="CW56" s="73"/>
-      <c r="CX56" s="73"/>
-      <c r="CY56" s="73"/>
-      <c r="CZ56" s="73"/>
-      <c r="DA56" s="73"/>
-      <c r="DB56" s="73"/>
-      <c r="DC56" s="73"/>
-      <c r="DD56" s="73"/>
-      <c r="DE56" s="73"/>
-      <c r="DF56" s="73"/>
-      <c r="DG56" s="73"/>
-      <c r="DH56" s="73"/>
-      <c r="DI56" s="73"/>
-      <c r="DJ56" s="73"/>
-      <c r="DK56" s="73"/>
-      <c r="DL56" s="73"/>
-      <c r="DM56" s="73"/>
-      <c r="DN56" s="73"/>
-      <c r="DO56" s="73"/>
-      <c r="DP56" s="73"/>
-      <c r="DQ56" s="73"/>
-      <c r="DR56" s="73"/>
-      <c r="DS56" s="73"/>
-      <c r="DT56" s="73"/>
-      <c r="DU56" s="73"/>
-      <c r="DV56" s="73"/>
-      <c r="DW56" s="73"/>
-      <c r="DX56" s="73"/>
-      <c r="DY56" s="73"/>
-      <c r="DZ56" s="73"/>
-      <c r="EA56" s="73"/>
-      <c r="EB56" s="73"/>
-      <c r="EC56" s="73"/>
-      <c r="ED56" s="73"/>
-      <c r="EE56" s="73"/>
-      <c r="EF56" s="73"/>
-      <c r="EG56" s="73"/>
-      <c r="EH56" s="73"/>
-      <c r="EI56" s="73"/>
-      <c r="EJ56" s="73"/>
-      <c r="EK56" s="73"/>
-      <c r="EL56" s="73"/>
+      <c r="CJ56" s="55"/>
+      <c r="CK56" s="55"/>
+      <c r="CL56" s="55"/>
+      <c r="CM56" s="55"/>
+      <c r="CN56" s="56"/>
+      <c r="CO56" s="56"/>
+      <c r="CP56" s="56"/>
+      <c r="CQ56" s="56"/>
+      <c r="CR56" s="55"/>
+      <c r="CS56" s="55"/>
+      <c r="CT56" s="55"/>
+      <c r="CU56" s="55"/>
+      <c r="CV56" s="57"/>
+      <c r="CW56" s="57"/>
+      <c r="CX56" s="57"/>
+      <c r="CY56" s="57"/>
+      <c r="CZ56" s="57"/>
+      <c r="DA56" s="57"/>
+      <c r="DB56" s="57"/>
+      <c r="DC56" s="57"/>
+      <c r="DD56" s="57"/>
+      <c r="DE56" s="57"/>
+      <c r="DF56" s="57"/>
+      <c r="DG56" s="57"/>
+      <c r="DH56" s="57"/>
+      <c r="DI56" s="57"/>
+      <c r="DJ56" s="57"/>
+      <c r="DK56" s="57"/>
+      <c r="DL56" s="57"/>
+      <c r="DM56" s="57"/>
+      <c r="DN56" s="57"/>
+      <c r="DO56" s="57"/>
+      <c r="DP56" s="57"/>
+      <c r="DQ56" s="57"/>
+      <c r="DR56" s="57"/>
+      <c r="DS56" s="57"/>
+      <c r="DT56" s="57"/>
+      <c r="DU56" s="57"/>
+      <c r="DV56" s="57"/>
+      <c r="DW56" s="57"/>
+      <c r="DX56" s="57"/>
+      <c r="DY56" s="57"/>
+      <c r="DZ56" s="57"/>
+      <c r="EA56" s="57"/>
+      <c r="EB56" s="57"/>
+      <c r="EC56" s="57"/>
+      <c r="ED56" s="57"/>
+      <c r="EE56" s="57"/>
+      <c r="EF56" s="57"/>
+      <c r="EG56" s="57"/>
+      <c r="EH56" s="57"/>
+      <c r="EI56" s="57"/>
+      <c r="EJ56" s="57"/>
+      <c r="EK56" s="57"/>
+      <c r="EL56" s="57"/>
     </row>
     <row r="57" spans="2:142">
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
       <c r="G57" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H57" s="19"/>
       <c r="J57" s="19"/>
@@ -8369,7 +8378,7 @@
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
       <c r="F58" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G58" s="19"/>
       <c r="H58" s="19"/>
@@ -8423,7 +8432,7 @@
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
       <c r="G59" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H59" s="19"/>
       <c r="J59" s="19"/>
@@ -8583,7 +8592,7 @@
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
       <c r="F62" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G62" s="19"/>
       <c r="H62" s="19"/>
@@ -8638,7 +8647,7 @@
       <c r="D63" s="19"/>
       <c r="F63" s="19"/>
       <c r="G63" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H63" s="19"/>
       <c r="J63" s="19"/>
@@ -9169,61 +9178,61 @@
       <c r="AY72" s="19"/>
       <c r="AZ72" s="19"/>
       <c r="BA72" s="19"/>
-      <c r="CJ72" s="71"/>
-      <c r="CK72" s="71"/>
-      <c r="CL72" s="71"/>
-      <c r="CM72" s="71"/>
-      <c r="CN72" s="72"/>
-      <c r="CO72" s="72"/>
-      <c r="CP72" s="72"/>
-      <c r="CQ72" s="72"/>
-      <c r="CR72" s="71"/>
-      <c r="CS72" s="71"/>
-      <c r="CT72" s="71"/>
-      <c r="CU72" s="71"/>
-      <c r="CV72" s="73"/>
-      <c r="CW72" s="73"/>
-      <c r="CX72" s="73"/>
-      <c r="CY72" s="73"/>
-      <c r="CZ72" s="73"/>
-      <c r="DA72" s="73"/>
-      <c r="DB72" s="73"/>
-      <c r="DC72" s="73"/>
-      <c r="DD72" s="73"/>
-      <c r="DE72" s="73"/>
-      <c r="DF72" s="73"/>
-      <c r="DG72" s="73"/>
-      <c r="DH72" s="73"/>
-      <c r="DI72" s="73"/>
-      <c r="DJ72" s="73"/>
-      <c r="DK72" s="73"/>
-      <c r="DL72" s="73"/>
-      <c r="DM72" s="73"/>
-      <c r="DN72" s="73"/>
-      <c r="DO72" s="73"/>
-      <c r="DP72" s="73"/>
-      <c r="DQ72" s="73"/>
-      <c r="DR72" s="73"/>
-      <c r="DS72" s="73"/>
-      <c r="DT72" s="73"/>
-      <c r="DU72" s="73"/>
-      <c r="DV72" s="73"/>
-      <c r="DW72" s="73"/>
-      <c r="DX72" s="73"/>
-      <c r="DY72" s="73"/>
-      <c r="DZ72" s="73"/>
-      <c r="EA72" s="73"/>
-      <c r="EB72" s="73"/>
-      <c r="EC72" s="73"/>
-      <c r="ED72" s="73"/>
-      <c r="EE72" s="73"/>
-      <c r="EF72" s="73"/>
-      <c r="EG72" s="73"/>
-      <c r="EH72" s="73"/>
-      <c r="EI72" s="73"/>
-      <c r="EJ72" s="73"/>
-      <c r="EK72" s="73"/>
-      <c r="EL72" s="73"/>
+      <c r="CJ72" s="55"/>
+      <c r="CK72" s="55"/>
+      <c r="CL72" s="55"/>
+      <c r="CM72" s="55"/>
+      <c r="CN72" s="56"/>
+      <c r="CO72" s="56"/>
+      <c r="CP72" s="56"/>
+      <c r="CQ72" s="56"/>
+      <c r="CR72" s="55"/>
+      <c r="CS72" s="55"/>
+      <c r="CT72" s="55"/>
+      <c r="CU72" s="55"/>
+      <c r="CV72" s="57"/>
+      <c r="CW72" s="57"/>
+      <c r="CX72" s="57"/>
+      <c r="CY72" s="57"/>
+      <c r="CZ72" s="57"/>
+      <c r="DA72" s="57"/>
+      <c r="DB72" s="57"/>
+      <c r="DC72" s="57"/>
+      <c r="DD72" s="57"/>
+      <c r="DE72" s="57"/>
+      <c r="DF72" s="57"/>
+      <c r="DG72" s="57"/>
+      <c r="DH72" s="57"/>
+      <c r="DI72" s="57"/>
+      <c r="DJ72" s="57"/>
+      <c r="DK72" s="57"/>
+      <c r="DL72" s="57"/>
+      <c r="DM72" s="57"/>
+      <c r="DN72" s="57"/>
+      <c r="DO72" s="57"/>
+      <c r="DP72" s="57"/>
+      <c r="DQ72" s="57"/>
+      <c r="DR72" s="57"/>
+      <c r="DS72" s="57"/>
+      <c r="DT72" s="57"/>
+      <c r="DU72" s="57"/>
+      <c r="DV72" s="57"/>
+      <c r="DW72" s="57"/>
+      <c r="DX72" s="57"/>
+      <c r="DY72" s="57"/>
+      <c r="DZ72" s="57"/>
+      <c r="EA72" s="57"/>
+      <c r="EB72" s="57"/>
+      <c r="EC72" s="57"/>
+      <c r="ED72" s="57"/>
+      <c r="EE72" s="57"/>
+      <c r="EF72" s="57"/>
+      <c r="EG72" s="57"/>
+      <c r="EH72" s="57"/>
+      <c r="EI72" s="57"/>
+      <c r="EJ72" s="57"/>
+      <c r="EK72" s="57"/>
+      <c r="EL72" s="57"/>
     </row>
     <row r="73" spans="2:142">
       <c r="B73" s="19"/>
@@ -11788,6 +11797,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="EC2:EL2"/>
+    <mergeCell ref="AL3:AQ3"/>
+    <mergeCell ref="AR3:BA3"/>
+    <mergeCell ref="DW3:EB3"/>
+    <mergeCell ref="EC3:EL3"/>
+    <mergeCell ref="B2:AK3"/>
+    <mergeCell ref="AL2:AQ2"/>
+    <mergeCell ref="AR2:BA2"/>
+    <mergeCell ref="CJ2:DV3"/>
+    <mergeCell ref="DW2:EB2"/>
+    <mergeCell ref="CJ25:CM25"/>
+    <mergeCell ref="CN25:CQ25"/>
+    <mergeCell ref="CR25:CU25"/>
+    <mergeCell ref="CV25:EL25"/>
+    <mergeCell ref="CJ37:CM37"/>
+    <mergeCell ref="CN37:CQ37"/>
+    <mergeCell ref="CR37:CU37"/>
+    <mergeCell ref="CV37:EL37"/>
     <mergeCell ref="CJ56:CM56"/>
     <mergeCell ref="CN56:CQ56"/>
     <mergeCell ref="CR56:CU56"/>
@@ -11796,24 +11823,6 @@
     <mergeCell ref="CN72:CQ72"/>
     <mergeCell ref="CR72:CU72"/>
     <mergeCell ref="CV72:EL72"/>
-    <mergeCell ref="CJ25:CM25"/>
-    <mergeCell ref="CN25:CQ25"/>
-    <mergeCell ref="CR25:CU25"/>
-    <mergeCell ref="CV25:EL25"/>
-    <mergeCell ref="CJ37:CM37"/>
-    <mergeCell ref="CN37:CQ37"/>
-    <mergeCell ref="CR37:CU37"/>
-    <mergeCell ref="CV37:EL37"/>
-    <mergeCell ref="B2:AK3"/>
-    <mergeCell ref="AL2:AQ2"/>
-    <mergeCell ref="AR2:BA2"/>
-    <mergeCell ref="CJ2:DV3"/>
-    <mergeCell ref="DW2:EB2"/>
-    <mergeCell ref="EC2:EL2"/>
-    <mergeCell ref="AL3:AQ3"/>
-    <mergeCell ref="AR3:BA3"/>
-    <mergeCell ref="DW3:EB3"/>
-    <mergeCell ref="EC3:EL3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.71" right="0.39" top="0.59" bottom="0.59" header="0.39" footer="0.39"/>
@@ -11831,7 +11840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DFE129-E980-4F53-B4C2-2DAB1C282512}">
   <dimension ref="A1:EL121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="15.75"/>
   <cols>
@@ -11844,232 +11853,232 @@
   <sheetData>
     <row r="1" spans="2:142" s="10" customFormat="1" ht="12.75" thickBot="1"/>
     <row r="2" spans="2:142" s="10" customFormat="1" ht="12.75" thickTop="1">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="62"/>
-      <c r="AJ2" s="62"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="67" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="67"/>
-      <c r="AO2" s="67"/>
-      <c r="AP2" s="67"/>
-      <c r="AQ2" s="67"/>
-      <c r="AR2" s="68">
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="64"/>
+      <c r="AR2" s="65">
         <v>44000</v>
       </c>
-      <c r="AS2" s="68"/>
-      <c r="AT2" s="68"/>
-      <c r="AU2" s="68"/>
-      <c r="AV2" s="68"/>
-      <c r="AW2" s="68"/>
-      <c r="AX2" s="68"/>
-      <c r="AY2" s="68"/>
-      <c r="AZ2" s="68"/>
-      <c r="BA2" s="69"/>
-      <c r="CJ2" s="70"/>
-      <c r="CK2" s="70"/>
-      <c r="CL2" s="70"/>
-      <c r="CM2" s="70"/>
-      <c r="CN2" s="70"/>
-      <c r="CO2" s="70"/>
-      <c r="CP2" s="70"/>
-      <c r="CQ2" s="70"/>
-      <c r="CR2" s="70"/>
-      <c r="CS2" s="70"/>
-      <c r="CT2" s="70"/>
-      <c r="CU2" s="70"/>
-      <c r="CV2" s="70"/>
-      <c r="CW2" s="70"/>
-      <c r="CX2" s="70"/>
-      <c r="CY2" s="70"/>
-      <c r="CZ2" s="70"/>
-      <c r="DA2" s="70"/>
-      <c r="DB2" s="70"/>
-      <c r="DC2" s="70"/>
-      <c r="DD2" s="70"/>
-      <c r="DE2" s="70"/>
-      <c r="DF2" s="70"/>
-      <c r="DG2" s="70"/>
-      <c r="DH2" s="70"/>
-      <c r="DI2" s="70"/>
-      <c r="DJ2" s="70"/>
-      <c r="DK2" s="70"/>
-      <c r="DL2" s="70"/>
-      <c r="DM2" s="70"/>
-      <c r="DN2" s="70"/>
-      <c r="DO2" s="70"/>
-      <c r="DP2" s="70"/>
-      <c r="DQ2" s="70"/>
-      <c r="DR2" s="70"/>
-      <c r="DS2" s="70"/>
-      <c r="DT2" s="70"/>
-      <c r="DU2" s="70"/>
-      <c r="DV2" s="70"/>
-      <c r="DW2" s="59"/>
-      <c r="DX2" s="59"/>
-      <c r="DY2" s="59"/>
-      <c r="DZ2" s="59"/>
-      <c r="EA2" s="59"/>
-      <c r="EB2" s="59"/>
-      <c r="EC2" s="55"/>
-      <c r="ED2" s="55"/>
-      <c r="EE2" s="55"/>
-      <c r="EF2" s="55"/>
-      <c r="EG2" s="55"/>
-      <c r="EH2" s="55"/>
-      <c r="EI2" s="55"/>
-      <c r="EJ2" s="55"/>
-      <c r="EK2" s="55"/>
-      <c r="EL2" s="55"/>
+      <c r="AS2" s="65"/>
+      <c r="AT2" s="65"/>
+      <c r="AU2" s="65"/>
+      <c r="AV2" s="65"/>
+      <c r="AW2" s="65"/>
+      <c r="AX2" s="65"/>
+      <c r="AY2" s="65"/>
+      <c r="AZ2" s="65"/>
+      <c r="BA2" s="66"/>
+      <c r="CJ2" s="67"/>
+      <c r="CK2" s="67"/>
+      <c r="CL2" s="67"/>
+      <c r="CM2" s="67"/>
+      <c r="CN2" s="67"/>
+      <c r="CO2" s="67"/>
+      <c r="CP2" s="67"/>
+      <c r="CQ2" s="67"/>
+      <c r="CR2" s="67"/>
+      <c r="CS2" s="67"/>
+      <c r="CT2" s="67"/>
+      <c r="CU2" s="67"/>
+      <c r="CV2" s="67"/>
+      <c r="CW2" s="67"/>
+      <c r="CX2" s="67"/>
+      <c r="CY2" s="67"/>
+      <c r="CZ2" s="67"/>
+      <c r="DA2" s="67"/>
+      <c r="DB2" s="67"/>
+      <c r="DC2" s="67"/>
+      <c r="DD2" s="67"/>
+      <c r="DE2" s="67"/>
+      <c r="DF2" s="67"/>
+      <c r="DG2" s="67"/>
+      <c r="DH2" s="67"/>
+      <c r="DI2" s="67"/>
+      <c r="DJ2" s="67"/>
+      <c r="DK2" s="67"/>
+      <c r="DL2" s="67"/>
+      <c r="DM2" s="67"/>
+      <c r="DN2" s="67"/>
+      <c r="DO2" s="67"/>
+      <c r="DP2" s="67"/>
+      <c r="DQ2" s="67"/>
+      <c r="DR2" s="67"/>
+      <c r="DS2" s="67"/>
+      <c r="DT2" s="67"/>
+      <c r="DU2" s="67"/>
+      <c r="DV2" s="67"/>
+      <c r="DW2" s="68"/>
+      <c r="DX2" s="68"/>
+      <c r="DY2" s="68"/>
+      <c r="DZ2" s="68"/>
+      <c r="EA2" s="68"/>
+      <c r="EB2" s="68"/>
+      <c r="EC2" s="69"/>
+      <c r="ED2" s="69"/>
+      <c r="EE2" s="69"/>
+      <c r="EF2" s="69"/>
+      <c r="EG2" s="69"/>
+      <c r="EH2" s="69"/>
+      <c r="EI2" s="69"/>
+      <c r="EJ2" s="69"/>
+      <c r="EK2" s="69"/>
+      <c r="EL2" s="69"/>
     </row>
     <row r="3" spans="2:142" s="10" customFormat="1" ht="12.75" thickBot="1">
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="56" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="62"/>
+      <c r="AH3" s="62"/>
+      <c r="AI3" s="62"/>
+      <c r="AJ3" s="62"/>
+      <c r="AK3" s="63"/>
+      <c r="AL3" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="AM3" s="56"/>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="56"/>
-      <c r="AP3" s="56"/>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="57" t="s">
+      <c r="AM3" s="70"/>
+      <c r="AN3" s="70"/>
+      <c r="AO3" s="70"/>
+      <c r="AP3" s="70"/>
+      <c r="AQ3" s="70"/>
+      <c r="AR3" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="AS3" s="57"/>
-      <c r="AT3" s="57"/>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="57"/>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="57"/>
-      <c r="BA3" s="58"/>
-      <c r="CJ3" s="70"/>
-      <c r="CK3" s="70"/>
-      <c r="CL3" s="70"/>
-      <c r="CM3" s="70"/>
-      <c r="CN3" s="70"/>
-      <c r="CO3" s="70"/>
-      <c r="CP3" s="70"/>
-      <c r="CQ3" s="70"/>
-      <c r="CR3" s="70"/>
-      <c r="CS3" s="70"/>
-      <c r="CT3" s="70"/>
-      <c r="CU3" s="70"/>
-      <c r="CV3" s="70"/>
-      <c r="CW3" s="70"/>
-      <c r="CX3" s="70"/>
-      <c r="CY3" s="70"/>
-      <c r="CZ3" s="70"/>
-      <c r="DA3" s="70"/>
-      <c r="DB3" s="70"/>
-      <c r="DC3" s="70"/>
-      <c r="DD3" s="70"/>
-      <c r="DE3" s="70"/>
-      <c r="DF3" s="70"/>
-      <c r="DG3" s="70"/>
-      <c r="DH3" s="70"/>
-      <c r="DI3" s="70"/>
-      <c r="DJ3" s="70"/>
-      <c r="DK3" s="70"/>
-      <c r="DL3" s="70"/>
-      <c r="DM3" s="70"/>
-      <c r="DN3" s="70"/>
-      <c r="DO3" s="70"/>
-      <c r="DP3" s="70"/>
-      <c r="DQ3" s="70"/>
-      <c r="DR3" s="70"/>
-      <c r="DS3" s="70"/>
-      <c r="DT3" s="70"/>
-      <c r="DU3" s="70"/>
-      <c r="DV3" s="70"/>
-      <c r="DW3" s="59"/>
-      <c r="DX3" s="59"/>
-      <c r="DY3" s="59"/>
-      <c r="DZ3" s="59"/>
-      <c r="EA3" s="59"/>
-      <c r="EB3" s="59"/>
-      <c r="EC3" s="60"/>
-      <c r="ED3" s="60"/>
-      <c r="EE3" s="60"/>
-      <c r="EF3" s="60"/>
-      <c r="EG3" s="60"/>
-      <c r="EH3" s="60"/>
-      <c r="EI3" s="60"/>
-      <c r="EJ3" s="60"/>
-      <c r="EK3" s="60"/>
-      <c r="EL3" s="60"/>
+      <c r="AS3" s="71"/>
+      <c r="AT3" s="71"/>
+      <c r="AU3" s="71"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="71"/>
+      <c r="AX3" s="71"/>
+      <c r="AY3" s="71"/>
+      <c r="AZ3" s="71"/>
+      <c r="BA3" s="72"/>
+      <c r="CJ3" s="67"/>
+      <c r="CK3" s="67"/>
+      <c r="CL3" s="67"/>
+      <c r="CM3" s="67"/>
+      <c r="CN3" s="67"/>
+      <c r="CO3" s="67"/>
+      <c r="CP3" s="67"/>
+      <c r="CQ3" s="67"/>
+      <c r="CR3" s="67"/>
+      <c r="CS3" s="67"/>
+      <c r="CT3" s="67"/>
+      <c r="CU3" s="67"/>
+      <c r="CV3" s="67"/>
+      <c r="CW3" s="67"/>
+      <c r="CX3" s="67"/>
+      <c r="CY3" s="67"/>
+      <c r="CZ3" s="67"/>
+      <c r="DA3" s="67"/>
+      <c r="DB3" s="67"/>
+      <c r="DC3" s="67"/>
+      <c r="DD3" s="67"/>
+      <c r="DE3" s="67"/>
+      <c r="DF3" s="67"/>
+      <c r="DG3" s="67"/>
+      <c r="DH3" s="67"/>
+      <c r="DI3" s="67"/>
+      <c r="DJ3" s="67"/>
+      <c r="DK3" s="67"/>
+      <c r="DL3" s="67"/>
+      <c r="DM3" s="67"/>
+      <c r="DN3" s="67"/>
+      <c r="DO3" s="67"/>
+      <c r="DP3" s="67"/>
+      <c r="DQ3" s="67"/>
+      <c r="DR3" s="67"/>
+      <c r="DS3" s="67"/>
+      <c r="DT3" s="67"/>
+      <c r="DU3" s="67"/>
+      <c r="DV3" s="67"/>
+      <c r="DW3" s="68"/>
+      <c r="DX3" s="68"/>
+      <c r="DY3" s="68"/>
+      <c r="DZ3" s="68"/>
+      <c r="EA3" s="68"/>
+      <c r="EB3" s="68"/>
+      <c r="EC3" s="73"/>
+      <c r="ED3" s="73"/>
+      <c r="EE3" s="73"/>
+      <c r="EF3" s="73"/>
+      <c r="EG3" s="73"/>
+      <c r="EH3" s="73"/>
+      <c r="EI3" s="73"/>
+      <c r="EJ3" s="73"/>
+      <c r="EK3" s="73"/>
+      <c r="EL3" s="73"/>
     </row>
     <row r="4" spans="2:142" s="10" customFormat="1" ht="12.75" thickTop="1">
       <c r="B4" s="11"/>
@@ -12191,7 +12200,7 @@
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
@@ -12304,7 +12313,7 @@
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
@@ -12418,7 +12427,7 @@
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
@@ -12781,7 +12790,7 @@
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
       <c r="E18" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
@@ -12825,7 +12834,7 @@
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="F19" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R19" s="19"/>
       <c r="S19" s="19"/>
@@ -12870,7 +12879,7 @@
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="G20" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R20" s="19"/>
       <c r="S20" s="19"/>
@@ -12915,7 +12924,7 @@
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="H21" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R21" s="19"/>
       <c r="S21" s="19"/>
@@ -12960,7 +12969,7 @@
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="I22" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R22" s="19"/>
       <c r="S22" s="19"/>
@@ -13150,7 +13159,7 @@
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="G25" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
@@ -13193,68 +13202,68 @@
       <c r="AY25" s="19"/>
       <c r="AZ25" s="19"/>
       <c r="BA25" s="19"/>
-      <c r="CJ25" s="71"/>
-      <c r="CK25" s="71"/>
-      <c r="CL25" s="71"/>
-      <c r="CM25" s="71"/>
-      <c r="CN25" s="72"/>
-      <c r="CO25" s="72"/>
-      <c r="CP25" s="72"/>
-      <c r="CQ25" s="72"/>
-      <c r="CR25" s="71"/>
-      <c r="CS25" s="71"/>
-      <c r="CT25" s="71"/>
-      <c r="CU25" s="71"/>
-      <c r="CV25" s="73"/>
-      <c r="CW25" s="73"/>
-      <c r="CX25" s="73"/>
-      <c r="CY25" s="73"/>
-      <c r="CZ25" s="73"/>
-      <c r="DA25" s="73"/>
-      <c r="DB25" s="73"/>
-      <c r="DC25" s="73"/>
-      <c r="DD25" s="73"/>
-      <c r="DE25" s="73"/>
-      <c r="DF25" s="73"/>
-      <c r="DG25" s="73"/>
-      <c r="DH25" s="73"/>
-      <c r="DI25" s="73"/>
-      <c r="DJ25" s="73"/>
-      <c r="DK25" s="73"/>
-      <c r="DL25" s="73"/>
-      <c r="DM25" s="73"/>
-      <c r="DN25" s="73"/>
-      <c r="DO25" s="73"/>
-      <c r="DP25" s="73"/>
-      <c r="DQ25" s="73"/>
-      <c r="DR25" s="73"/>
-      <c r="DS25" s="73"/>
-      <c r="DT25" s="73"/>
-      <c r="DU25" s="73"/>
-      <c r="DV25" s="73"/>
-      <c r="DW25" s="73"/>
-      <c r="DX25" s="73"/>
-      <c r="DY25" s="73"/>
-      <c r="DZ25" s="73"/>
-      <c r="EA25" s="73"/>
-      <c r="EB25" s="73"/>
-      <c r="EC25" s="73"/>
-      <c r="ED25" s="73"/>
-      <c r="EE25" s="73"/>
-      <c r="EF25" s="73"/>
-      <c r="EG25" s="73"/>
-      <c r="EH25" s="73"/>
-      <c r="EI25" s="73"/>
-      <c r="EJ25" s="73"/>
-      <c r="EK25" s="73"/>
-      <c r="EL25" s="73"/>
+      <c r="CJ25" s="55"/>
+      <c r="CK25" s="55"/>
+      <c r="CL25" s="55"/>
+      <c r="CM25" s="55"/>
+      <c r="CN25" s="56"/>
+      <c r="CO25" s="56"/>
+      <c r="CP25" s="56"/>
+      <c r="CQ25" s="56"/>
+      <c r="CR25" s="55"/>
+      <c r="CS25" s="55"/>
+      <c r="CT25" s="55"/>
+      <c r="CU25" s="55"/>
+      <c r="CV25" s="57"/>
+      <c r="CW25" s="57"/>
+      <c r="CX25" s="57"/>
+      <c r="CY25" s="57"/>
+      <c r="CZ25" s="57"/>
+      <c r="DA25" s="57"/>
+      <c r="DB25" s="57"/>
+      <c r="DC25" s="57"/>
+      <c r="DD25" s="57"/>
+      <c r="DE25" s="57"/>
+      <c r="DF25" s="57"/>
+      <c r="DG25" s="57"/>
+      <c r="DH25" s="57"/>
+      <c r="DI25" s="57"/>
+      <c r="DJ25" s="57"/>
+      <c r="DK25" s="57"/>
+      <c r="DL25" s="57"/>
+      <c r="DM25" s="57"/>
+      <c r="DN25" s="57"/>
+      <c r="DO25" s="57"/>
+      <c r="DP25" s="57"/>
+      <c r="DQ25" s="57"/>
+      <c r="DR25" s="57"/>
+      <c r="DS25" s="57"/>
+      <c r="DT25" s="57"/>
+      <c r="DU25" s="57"/>
+      <c r="DV25" s="57"/>
+      <c r="DW25" s="57"/>
+      <c r="DX25" s="57"/>
+      <c r="DY25" s="57"/>
+      <c r="DZ25" s="57"/>
+      <c r="EA25" s="57"/>
+      <c r="EB25" s="57"/>
+      <c r="EC25" s="57"/>
+      <c r="ED25" s="57"/>
+      <c r="EE25" s="57"/>
+      <c r="EF25" s="57"/>
+      <c r="EG25" s="57"/>
+      <c r="EH25" s="57"/>
+      <c r="EI25" s="57"/>
+      <c r="EJ25" s="57"/>
+      <c r="EK25" s="57"/>
+      <c r="EL25" s="57"/>
     </row>
     <row r="26" spans="2:142">
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="H26" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I26" s="19"/>
       <c r="J26" s="19"/>
@@ -13306,7 +13315,7 @@
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="I27" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
@@ -13356,7 +13365,7 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="I28" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
@@ -13408,7 +13417,7 @@
       <c r="D29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
@@ -13459,7 +13468,7 @@
       <c r="D30" s="19"/>
       <c r="H30" s="19"/>
       <c r="J30" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K30" s="19"/>
       <c r="M30" s="19"/>
@@ -13509,10 +13518,10 @@
       <c r="D31" s="19"/>
       <c r="H31" s="19"/>
       <c r="J31" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M31" s="19"/>
       <c r="N31" s="19"/>
@@ -13810,7 +13819,7 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="G37" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J37" s="19"/>
       <c r="K37" s="19"/>
@@ -13855,68 +13864,68 @@
       <c r="AY37" s="19"/>
       <c r="AZ37" s="19"/>
       <c r="BA37" s="19"/>
-      <c r="CJ37" s="71"/>
-      <c r="CK37" s="71"/>
-      <c r="CL37" s="71"/>
-      <c r="CM37" s="71"/>
-      <c r="CN37" s="72"/>
-      <c r="CO37" s="72"/>
-      <c r="CP37" s="72"/>
-      <c r="CQ37" s="72"/>
-      <c r="CR37" s="71"/>
-      <c r="CS37" s="71"/>
-      <c r="CT37" s="71"/>
-      <c r="CU37" s="71"/>
-      <c r="CV37" s="73"/>
-      <c r="CW37" s="73"/>
-      <c r="CX37" s="73"/>
-      <c r="CY37" s="73"/>
-      <c r="CZ37" s="73"/>
-      <c r="DA37" s="73"/>
-      <c r="DB37" s="73"/>
-      <c r="DC37" s="73"/>
-      <c r="DD37" s="73"/>
-      <c r="DE37" s="73"/>
-      <c r="DF37" s="73"/>
-      <c r="DG37" s="73"/>
-      <c r="DH37" s="73"/>
-      <c r="DI37" s="73"/>
-      <c r="DJ37" s="73"/>
-      <c r="DK37" s="73"/>
-      <c r="DL37" s="73"/>
-      <c r="DM37" s="73"/>
-      <c r="DN37" s="73"/>
-      <c r="DO37" s="73"/>
-      <c r="DP37" s="73"/>
-      <c r="DQ37" s="73"/>
-      <c r="DR37" s="73"/>
-      <c r="DS37" s="73"/>
-      <c r="DT37" s="73"/>
-      <c r="DU37" s="73"/>
-      <c r="DV37" s="73"/>
-      <c r="DW37" s="73"/>
-      <c r="DX37" s="73"/>
-      <c r="DY37" s="73"/>
-      <c r="DZ37" s="73"/>
-      <c r="EA37" s="73"/>
-      <c r="EB37" s="73"/>
-      <c r="EC37" s="73"/>
-      <c r="ED37" s="73"/>
-      <c r="EE37" s="73"/>
-      <c r="EF37" s="73"/>
-      <c r="EG37" s="73"/>
-      <c r="EH37" s="73"/>
-      <c r="EI37" s="73"/>
-      <c r="EJ37" s="73"/>
-      <c r="EK37" s="73"/>
-      <c r="EL37" s="73"/>
+      <c r="CJ37" s="55"/>
+      <c r="CK37" s="55"/>
+      <c r="CL37" s="55"/>
+      <c r="CM37" s="55"/>
+      <c r="CN37" s="56"/>
+      <c r="CO37" s="56"/>
+      <c r="CP37" s="56"/>
+      <c r="CQ37" s="56"/>
+      <c r="CR37" s="55"/>
+      <c r="CS37" s="55"/>
+      <c r="CT37" s="55"/>
+      <c r="CU37" s="55"/>
+      <c r="CV37" s="57"/>
+      <c r="CW37" s="57"/>
+      <c r="CX37" s="57"/>
+      <c r="CY37" s="57"/>
+      <c r="CZ37" s="57"/>
+      <c r="DA37" s="57"/>
+      <c r="DB37" s="57"/>
+      <c r="DC37" s="57"/>
+      <c r="DD37" s="57"/>
+      <c r="DE37" s="57"/>
+      <c r="DF37" s="57"/>
+      <c r="DG37" s="57"/>
+      <c r="DH37" s="57"/>
+      <c r="DI37" s="57"/>
+      <c r="DJ37" s="57"/>
+      <c r="DK37" s="57"/>
+      <c r="DL37" s="57"/>
+      <c r="DM37" s="57"/>
+      <c r="DN37" s="57"/>
+      <c r="DO37" s="57"/>
+      <c r="DP37" s="57"/>
+      <c r="DQ37" s="57"/>
+      <c r="DR37" s="57"/>
+      <c r="DS37" s="57"/>
+      <c r="DT37" s="57"/>
+      <c r="DU37" s="57"/>
+      <c r="DV37" s="57"/>
+      <c r="DW37" s="57"/>
+      <c r="DX37" s="57"/>
+      <c r="DY37" s="57"/>
+      <c r="DZ37" s="57"/>
+      <c r="EA37" s="57"/>
+      <c r="EB37" s="57"/>
+      <c r="EC37" s="57"/>
+      <c r="ED37" s="57"/>
+      <c r="EE37" s="57"/>
+      <c r="EF37" s="57"/>
+      <c r="EG37" s="57"/>
+      <c r="EH37" s="57"/>
+      <c r="EI37" s="57"/>
+      <c r="EJ37" s="57"/>
+      <c r="EK37" s="57"/>
+      <c r="EL37" s="57"/>
     </row>
     <row r="38" spans="2:142">
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
       <c r="H38" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I38" s="19"/>
       <c r="J38" s="19"/>
@@ -14017,7 +14026,7 @@
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
       <c r="J40" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M40" s="19"/>
       <c r="N40" s="19"/>
@@ -14167,7 +14176,7 @@
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="J43" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M43" s="19"/>
       <c r="N43" s="19"/>
@@ -14265,7 +14274,7 @@
       <c r="D45" s="19"/>
       <c r="G45" s="19"/>
       <c r="J45" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K45" s="19"/>
       <c r="M45" s="19"/>
@@ -14315,7 +14324,7 @@
       <c r="D46" s="19"/>
       <c r="J46" s="19"/>
       <c r="K46" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L46" s="19"/>
       <c r="M46" s="19"/>
@@ -14463,7 +14472,7 @@
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
       <c r="D49" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I49" s="19"/>
       <c r="J49" s="19"/>
@@ -14513,7 +14522,7 @@
     </row>
     <row r="50" spans="2:142">
       <c r="E50" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K50" s="19"/>
       <c r="L50" s="19"/>
@@ -14562,7 +14571,7 @@
     <row r="51" spans="2:142">
       <c r="E51" s="19"/>
       <c r="F51" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G51" s="19"/>
       <c r="K51" s="19"/>
@@ -14658,7 +14667,7 @@
       <c r="C53" s="19"/>
       <c r="D53" s="19"/>
       <c r="E53" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L53" s="19"/>
       <c r="M53" s="19"/>
@@ -14708,7 +14717,7 @@
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
       <c r="F54" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L54" s="19"/>
       <c r="M54" s="19"/>
@@ -14807,7 +14816,7 @@
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
       <c r="E56" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F56" s="19"/>
       <c r="J56" s="19"/>
@@ -14854,68 +14863,68 @@
       <c r="AY56" s="19"/>
       <c r="AZ56" s="19"/>
       <c r="BA56" s="19"/>
-      <c r="CJ56" s="71"/>
-      <c r="CK56" s="71"/>
-      <c r="CL56" s="71"/>
-      <c r="CM56" s="71"/>
-      <c r="CN56" s="72"/>
-      <c r="CO56" s="72"/>
-      <c r="CP56" s="72"/>
-      <c r="CQ56" s="72"/>
-      <c r="CR56" s="71"/>
-      <c r="CS56" s="71"/>
-      <c r="CT56" s="71"/>
-      <c r="CU56" s="71"/>
-      <c r="CV56" s="73"/>
-      <c r="CW56" s="73"/>
-      <c r="CX56" s="73"/>
-      <c r="CY56" s="73"/>
-      <c r="CZ56" s="73"/>
-      <c r="DA56" s="73"/>
-      <c r="DB56" s="73"/>
-      <c r="DC56" s="73"/>
-      <c r="DD56" s="73"/>
-      <c r="DE56" s="73"/>
-      <c r="DF56" s="73"/>
-      <c r="DG56" s="73"/>
-      <c r="DH56" s="73"/>
-      <c r="DI56" s="73"/>
-      <c r="DJ56" s="73"/>
-      <c r="DK56" s="73"/>
-      <c r="DL56" s="73"/>
-      <c r="DM56" s="73"/>
-      <c r="DN56" s="73"/>
-      <c r="DO56" s="73"/>
-      <c r="DP56" s="73"/>
-      <c r="DQ56" s="73"/>
-      <c r="DR56" s="73"/>
-      <c r="DS56" s="73"/>
-      <c r="DT56" s="73"/>
-      <c r="DU56" s="73"/>
-      <c r="DV56" s="73"/>
-      <c r="DW56" s="73"/>
-      <c r="DX56" s="73"/>
-      <c r="DY56" s="73"/>
-      <c r="DZ56" s="73"/>
-      <c r="EA56" s="73"/>
-      <c r="EB56" s="73"/>
-      <c r="EC56" s="73"/>
-      <c r="ED56" s="73"/>
-      <c r="EE56" s="73"/>
-      <c r="EF56" s="73"/>
-      <c r="EG56" s="73"/>
-      <c r="EH56" s="73"/>
-      <c r="EI56" s="73"/>
-      <c r="EJ56" s="73"/>
-      <c r="EK56" s="73"/>
-      <c r="EL56" s="73"/>
+      <c r="CJ56" s="55"/>
+      <c r="CK56" s="55"/>
+      <c r="CL56" s="55"/>
+      <c r="CM56" s="55"/>
+      <c r="CN56" s="56"/>
+      <c r="CO56" s="56"/>
+      <c r="CP56" s="56"/>
+      <c r="CQ56" s="56"/>
+      <c r="CR56" s="55"/>
+      <c r="CS56" s="55"/>
+      <c r="CT56" s="55"/>
+      <c r="CU56" s="55"/>
+      <c r="CV56" s="57"/>
+      <c r="CW56" s="57"/>
+      <c r="CX56" s="57"/>
+      <c r="CY56" s="57"/>
+      <c r="CZ56" s="57"/>
+      <c r="DA56" s="57"/>
+      <c r="DB56" s="57"/>
+      <c r="DC56" s="57"/>
+      <c r="DD56" s="57"/>
+      <c r="DE56" s="57"/>
+      <c r="DF56" s="57"/>
+      <c r="DG56" s="57"/>
+      <c r="DH56" s="57"/>
+      <c r="DI56" s="57"/>
+      <c r="DJ56" s="57"/>
+      <c r="DK56" s="57"/>
+      <c r="DL56" s="57"/>
+      <c r="DM56" s="57"/>
+      <c r="DN56" s="57"/>
+      <c r="DO56" s="57"/>
+      <c r="DP56" s="57"/>
+      <c r="DQ56" s="57"/>
+      <c r="DR56" s="57"/>
+      <c r="DS56" s="57"/>
+      <c r="DT56" s="57"/>
+      <c r="DU56" s="57"/>
+      <c r="DV56" s="57"/>
+      <c r="DW56" s="57"/>
+      <c r="DX56" s="57"/>
+      <c r="DY56" s="57"/>
+      <c r="DZ56" s="57"/>
+      <c r="EA56" s="57"/>
+      <c r="EB56" s="57"/>
+      <c r="EC56" s="57"/>
+      <c r="ED56" s="57"/>
+      <c r="EE56" s="57"/>
+      <c r="EF56" s="57"/>
+      <c r="EG56" s="57"/>
+      <c r="EH56" s="57"/>
+      <c r="EI56" s="57"/>
+      <c r="EJ56" s="57"/>
+      <c r="EK56" s="57"/>
+      <c r="EL56" s="57"/>
     </row>
     <row r="57" spans="2:142">
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
       <c r="F57" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G57" s="19"/>
       <c r="J57" s="19"/>
@@ -15019,7 +15028,7 @@
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
       <c r="E59" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G59" s="19"/>
       <c r="I59" s="19"/>
@@ -15073,7 +15082,7 @@
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
       <c r="F60" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G60" s="19"/>
       <c r="I60" s="19"/>
@@ -15128,7 +15137,7 @@
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
       <c r="G61" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I61" s="19"/>
       <c r="J61" s="19"/>
@@ -15181,7 +15190,7 @@
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
       <c r="F62" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I62" s="19"/>
       <c r="J62" s="19"/>
@@ -15234,7 +15243,7 @@
       <c r="C63" s="19"/>
       <c r="D63" s="19"/>
       <c r="G63" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I63" s="19"/>
       <c r="J63" s="19"/>
@@ -15287,7 +15296,7 @@
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
       <c r="G64" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I64" s="19"/>
       <c r="J64" s="19"/>
@@ -15340,7 +15349,7 @@
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
       <c r="G65" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I65" s="19"/>
       <c r="J65" s="19"/>
@@ -15442,7 +15451,7 @@
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F67" s="19"/>
       <c r="G67" s="19"/>
@@ -15497,7 +15506,7 @@
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
       <c r="F68" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I68" s="19"/>
       <c r="J68" s="19"/>
@@ -15550,7 +15559,7 @@
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
       <c r="G69" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I69" s="19"/>
       <c r="J69" s="19"/>
@@ -15654,7 +15663,7 @@
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
       <c r="E71" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F71" s="19"/>
       <c r="H71" s="19"/>
@@ -15709,7 +15718,7 @@
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
       <c r="F72" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G72" s="19"/>
       <c r="H72" s="19"/>
@@ -15752,61 +15761,61 @@
       <c r="AY72" s="19"/>
       <c r="AZ72" s="19"/>
       <c r="BA72" s="19"/>
-      <c r="CJ72" s="71"/>
-      <c r="CK72" s="71"/>
-      <c r="CL72" s="71"/>
-      <c r="CM72" s="71"/>
-      <c r="CN72" s="72"/>
-      <c r="CO72" s="72"/>
-      <c r="CP72" s="72"/>
-      <c r="CQ72" s="72"/>
-      <c r="CR72" s="71"/>
-      <c r="CS72" s="71"/>
-      <c r="CT72" s="71"/>
-      <c r="CU72" s="71"/>
-      <c r="CV72" s="73"/>
-      <c r="CW72" s="73"/>
-      <c r="CX72" s="73"/>
-      <c r="CY72" s="73"/>
-      <c r="CZ72" s="73"/>
-      <c r="DA72" s="73"/>
-      <c r="DB72" s="73"/>
-      <c r="DC72" s="73"/>
-      <c r="DD72" s="73"/>
-      <c r="DE72" s="73"/>
-      <c r="DF72" s="73"/>
-      <c r="DG72" s="73"/>
-      <c r="DH72" s="73"/>
-      <c r="DI72" s="73"/>
-      <c r="DJ72" s="73"/>
-      <c r="DK72" s="73"/>
-      <c r="DL72" s="73"/>
-      <c r="DM72" s="73"/>
-      <c r="DN72" s="73"/>
-      <c r="DO72" s="73"/>
-      <c r="DP72" s="73"/>
-      <c r="DQ72" s="73"/>
-      <c r="DR72" s="73"/>
-      <c r="DS72" s="73"/>
-      <c r="DT72" s="73"/>
-      <c r="DU72" s="73"/>
-      <c r="DV72" s="73"/>
-      <c r="DW72" s="73"/>
-      <c r="DX72" s="73"/>
-      <c r="DY72" s="73"/>
-      <c r="DZ72" s="73"/>
-      <c r="EA72" s="73"/>
-      <c r="EB72" s="73"/>
-      <c r="EC72" s="73"/>
-      <c r="ED72" s="73"/>
-      <c r="EE72" s="73"/>
-      <c r="EF72" s="73"/>
-      <c r="EG72" s="73"/>
-      <c r="EH72" s="73"/>
-      <c r="EI72" s="73"/>
-      <c r="EJ72" s="73"/>
-      <c r="EK72" s="73"/>
-      <c r="EL72" s="73"/>
+      <c r="CJ72" s="55"/>
+      <c r="CK72" s="55"/>
+      <c r="CL72" s="55"/>
+      <c r="CM72" s="55"/>
+      <c r="CN72" s="56"/>
+      <c r="CO72" s="56"/>
+      <c r="CP72" s="56"/>
+      <c r="CQ72" s="56"/>
+      <c r="CR72" s="55"/>
+      <c r="CS72" s="55"/>
+      <c r="CT72" s="55"/>
+      <c r="CU72" s="55"/>
+      <c r="CV72" s="57"/>
+      <c r="CW72" s="57"/>
+      <c r="CX72" s="57"/>
+      <c r="CY72" s="57"/>
+      <c r="CZ72" s="57"/>
+      <c r="DA72" s="57"/>
+      <c r="DB72" s="57"/>
+      <c r="DC72" s="57"/>
+      <c r="DD72" s="57"/>
+      <c r="DE72" s="57"/>
+      <c r="DF72" s="57"/>
+      <c r="DG72" s="57"/>
+      <c r="DH72" s="57"/>
+      <c r="DI72" s="57"/>
+      <c r="DJ72" s="57"/>
+      <c r="DK72" s="57"/>
+      <c r="DL72" s="57"/>
+      <c r="DM72" s="57"/>
+      <c r="DN72" s="57"/>
+      <c r="DO72" s="57"/>
+      <c r="DP72" s="57"/>
+      <c r="DQ72" s="57"/>
+      <c r="DR72" s="57"/>
+      <c r="DS72" s="57"/>
+      <c r="DT72" s="57"/>
+      <c r="DU72" s="57"/>
+      <c r="DV72" s="57"/>
+      <c r="DW72" s="57"/>
+      <c r="DX72" s="57"/>
+      <c r="DY72" s="57"/>
+      <c r="DZ72" s="57"/>
+      <c r="EA72" s="57"/>
+      <c r="EB72" s="57"/>
+      <c r="EC72" s="57"/>
+      <c r="ED72" s="57"/>
+      <c r="EE72" s="57"/>
+      <c r="EF72" s="57"/>
+      <c r="EG72" s="57"/>
+      <c r="EH72" s="57"/>
+      <c r="EI72" s="57"/>
+      <c r="EJ72" s="57"/>
+      <c r="EK72" s="57"/>
+      <c r="EL72" s="57"/>
     </row>
     <row r="73" spans="2:142">
       <c r="B73" s="19"/>
@@ -15861,7 +15870,7 @@
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
       <c r="E74" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F74" s="19"/>
       <c r="G74" s="19"/>
@@ -15917,7 +15926,7 @@
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
       <c r="F75" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G75" s="19"/>
       <c r="H75" s="19"/>
@@ -18365,6 +18374,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="EC2:EL2"/>
+    <mergeCell ref="AL3:AQ3"/>
+    <mergeCell ref="AR3:BA3"/>
+    <mergeCell ref="DW3:EB3"/>
+    <mergeCell ref="EC3:EL3"/>
+    <mergeCell ref="B2:AK3"/>
+    <mergeCell ref="AL2:AQ2"/>
+    <mergeCell ref="AR2:BA2"/>
+    <mergeCell ref="CJ2:DV3"/>
+    <mergeCell ref="DW2:EB2"/>
+    <mergeCell ref="CJ25:CM25"/>
+    <mergeCell ref="CN25:CQ25"/>
+    <mergeCell ref="CR25:CU25"/>
+    <mergeCell ref="CV25:EL25"/>
+    <mergeCell ref="CJ37:CM37"/>
+    <mergeCell ref="CN37:CQ37"/>
+    <mergeCell ref="CR37:CU37"/>
+    <mergeCell ref="CV37:EL37"/>
     <mergeCell ref="CJ56:CM56"/>
     <mergeCell ref="CN56:CQ56"/>
     <mergeCell ref="CR56:CU56"/>
@@ -18373,24 +18400,6 @@
     <mergeCell ref="CN72:CQ72"/>
     <mergeCell ref="CR72:CU72"/>
     <mergeCell ref="CV72:EL72"/>
-    <mergeCell ref="CJ25:CM25"/>
-    <mergeCell ref="CN25:CQ25"/>
-    <mergeCell ref="CR25:CU25"/>
-    <mergeCell ref="CV25:EL25"/>
-    <mergeCell ref="CJ37:CM37"/>
-    <mergeCell ref="CN37:CQ37"/>
-    <mergeCell ref="CR37:CU37"/>
-    <mergeCell ref="CV37:EL37"/>
-    <mergeCell ref="B2:AK3"/>
-    <mergeCell ref="AL2:AQ2"/>
-    <mergeCell ref="AR2:BA2"/>
-    <mergeCell ref="CJ2:DV3"/>
-    <mergeCell ref="DW2:EB2"/>
-    <mergeCell ref="EC2:EL2"/>
-    <mergeCell ref="AL3:AQ3"/>
-    <mergeCell ref="AR3:BA3"/>
-    <mergeCell ref="DW3:EB3"/>
-    <mergeCell ref="EC3:EL3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.71" right="0.39" top="0.59" bottom="0.59" header="0.39" footer="0.39"/>
